--- a/PCAstatic/PCAstatic_predicted_variables_matrix_5.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2807075678660463</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2709043782403659</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2622038413969047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2545715045777888</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2479549641960971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2422909443119823</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2375097176013359</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2335383157325678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2303029452407928</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2277308024705341</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2257514122594524</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2242975848839716</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2233060674580893</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.222717952386348</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2224788945332335</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2225391797140557</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2228536795426581</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2233817213252748</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2240868963656004</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2249368255811309</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2259028975916046</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2269599913161102</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2280861925133023</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2292625115408159</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2304726078287753</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2317025251013113</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2329404401903445</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2341764273255386</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2354022390170393</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.236611104042236</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2377975425774695</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2389571981573763</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2400866858786804</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2411834560749307</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2422456725596467</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2432721044554962</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2442620305863134</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2452151553984408</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2461315353909752</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2470613317264789</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2479517737968229</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2488056744129142</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2496242250077651</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2266828372245833</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2274898113854937</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2284692992640829</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2295462695844986</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2306594047118111</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.231761664989487</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2328184259966926</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2338053077293492</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2347061909072663</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.235511512491663</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2362168326985917</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2368216435720647</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2373283867037197</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2377416500177198</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2380675168307946</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2383130436700239</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2384858463506778</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2385937765404718</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2386446734711913</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2386461776220839</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2386055951125856</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.23852980322586</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2384251889598011</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2382976137883435</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2381523989319539</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2379943263998968</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2378276518949735</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2376561263794487</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2374830237031395</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2373111722042213</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2371429886220932</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2369805130203432</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2368254437160527</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2366791714579085</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2365428122973894</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2364172387613226</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2363031090661447</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2362008942193601</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2361109029363051</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2360125468945127</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2359254011886964</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2358510413597397</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2357896448692182</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1714983544150796</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1792561252563497</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1864894937103179</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1931467960871112</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1992015714151487</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2046475926630772</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2094941414522332</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2137620082639524</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.217480210348667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2206833385142561</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2234094372409479</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2256983316333278</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2275903262358085</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2291252115669317</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.230341523763336</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.231276010979754</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2319632673113884</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2324355011424697</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2327224101142194</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2328511394605055</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2328463043758936</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2327300604400138</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2325222089943601</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2322403268140271</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2318999114913667</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2315145356988617</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2310960049671412</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2306545148387683</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2301988042728101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.229736303009047</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2292732712802942</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2288149308098866</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2283655864691954</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2279287383148298</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2275071839922703</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2271031116953728</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2267181840208601</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2263536131633224</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2260102279676785</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2256544598461999</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2253206156450491</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2250096099172773</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2247213066493819</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.05961126290771658</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05596345908372163</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.05292022072433741</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.05043247296247591</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.04845200755284943</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.04693074741821818</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.04582136597459996</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.04507804254967538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.04465707775365838</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.04451733228018601</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.04462050875769481</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04493130573431107</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.04541747108683837</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.04604977813911398</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.04680194377803246</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04765050434311817</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04857466208113132</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04955611244756412</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.05057886043573067</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.0516290323609775</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05269468807046352</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05376563734391515</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.05483326326015941</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.05589035449582805</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.0569309478686196</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.05795018191387358</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.05894416186918418</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.05990983611942399</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.06084488390839243</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.06174761394007162</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.06261687336079336</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.06345196652381566</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.06425258288166026</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.0650187333221498</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.06575069425560195</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.06644895876823755</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.06711419417654402</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.06774720534580581</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.06834890317058964</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.06895684930973649</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.06953564288033232</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.07008556616595249</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.07060751325575247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.1715390186113633</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.176338322254783</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1802783040307585</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1834825095892426</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1860564539260139</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1880925558758999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1896720823994433</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1908663601137451</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1917377707068435</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1923406530736131</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.192722139465697</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1929229307479448</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1929780117080566</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1929173073551131</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1927662818439644</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1925464823062881</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1922760303322552</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1919700641467798</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1916411346982551</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1912995589567553</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.190953733725969</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1906104132255096</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1902749536104289</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1899515274727608</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1896433112239107</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1893526480935672</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1890811893063737</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.188830015816806</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1885997427997401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1883906089125054</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.188202552166609</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1880352740759749</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1878882935851511</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1877609921266785</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1876526510124898</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1875624822302632</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1874896535922418</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1874333090711111</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1873925850548142</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1873591252599324</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1873365244102159</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1873265204570947</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1873287900873096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4283603558309829</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4202587000976243</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4127685405701999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4059638160356593</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3998828988830552</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3945369001957695</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3899163015674152</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3859963503642093</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3827414279072406</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3801085578557195</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3780501967724293</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3765164279157011</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3754566612195988</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3748209267769224</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3745608356504727</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3746302702504934</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3749858565881503</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3755872622247687</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.376397356487424</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3773822633413672</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3785113320500604</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3797570462862356</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3810948885722232</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3825031737298379</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3839628623273645</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.3854573628526345</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.3869723294552616</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.3884954605343499</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.3900163021539379</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.3915260592067528</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.393017416382462</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.3944843702991742</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.3959220736001231</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.3973266913785879</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.3986952699535738</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4000256177597946</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4013161979236846</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4025660319602453</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4037746139330817</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.405004968098784</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4061912869351809</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4073350046348833</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4084370049300937</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2263462764699629</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2142595723548666</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2031933098484967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1931617354259952</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1841527763748873</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1761346773896649</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1690615575402843</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1628778914510157</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1575220782278433</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1529292514449534</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1490334619532818</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1457693449848949</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1430733653694639</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1408847196146965</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1391459608288736</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1378034016480833</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1368073411712229</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.136112154143999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1356762740531834</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.13546209621528</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1354358222209041</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1355672631034531</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1358296152335158</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1361992201101556</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1366553168506972</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1371797942064114</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1377569472958139</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1383732429008785</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1390170960714412</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1396786598921687</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1403496295522651</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.141023061292515</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1416932063630003</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1423553597869432</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1430057234736216</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1436412830407833</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1442596975813474</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1448592015293012</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1454385177362232</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1460257537134329</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1465913020608937</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1471342934099181</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.147654748680385</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3792547555722598</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3741822866910169</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.368760111583051</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3632366739140793</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3578023577071859</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3525975857722467</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3477216935333616</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3432409040690119</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3391951332035446</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3356036881787313</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3324699937560122</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3297854830734167</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3275327780741633</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3256882690792671</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3242241884957859</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.323110260527141</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3223149971716287</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3218067006610333</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3215542236597356</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3215275308696926</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3216980990317696</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3220391865559175</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3225259990418148</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3231357726705387</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3238477937706293</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3246433697126019</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3255057635974443</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.326420102917661</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3273732704315746</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3283537838566591</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3293516696147799</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3303583347154119</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3313664399104757</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3323697764685826</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3333631482727965</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3343422604231959</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3353036151049663</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3362444151483144</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3371624754441992</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3381057715635329</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3390230689117574</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3399123198402754</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3407729398852477</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3830894936854666</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3883389903561058</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.392609554997639</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3960429359106433</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3987624177506336</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.40087614176507</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.402478930361944</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4036536788690866</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4044725819390587</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4049982581377397</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4052847869862589</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.40537866231739</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4053196645591847</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4051416550975377</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4048732965027145</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4045387028326861</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4041580244567946</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4037479719313817</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4033222834499975</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4028921403152778</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4024665347568749</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4020525942624946</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4016558664056276</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4012805679505049</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.400929801797413</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4006057451045545</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.4003098116903407</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.4000427915862242</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3998049703783448</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3995962307493475</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3994161384122027</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3992640144177587</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3991389956185873</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3990400848845675</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3989661924912682</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3989161699409116</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3988888373275604</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3988830052229999</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3988974919371871</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.398915306929316</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3989502676547438</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3990020234671922</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3990697795562627</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2202654448032257</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2127514864687433</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2060293797491301</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2001013629116813</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1949501274154625</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1905440774271641</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1868416099298342</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.183794536667982</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1813507912432163</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1794565443647994</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1780578312723916</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1771017790901027</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1765375079813719</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1763167681298648</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1763943644906736</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1767284126867739</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1772804621467609</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1780155164010531</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1789019752133127</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1799115187850838</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1810189505189978</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1822020116611991</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1834411784832277</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1847194504356114</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.1860221358480691</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.1873366402109339</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.1886522608028433</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.1899599903906408</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.1912523318838611</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.1925231251478559</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.19376738664034</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.1949811621132563</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.1961613922958927</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.197305791229383</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.1984127367427949</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.1994811724347338</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2005105204414582</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2015006042241553</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2024515805869486</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2034172570923976</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2043435913417157</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2052312672121853</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2060813090795316</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.05550400783070249</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.05157193274014243</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.04890793187341573</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.04729856831473216</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.04656335926117965</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.04654700875510003</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.04711562825899617</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.04815410577066413</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.04956390259678699</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.05126109169923663</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.05317458617604031</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.05524453911793177</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.05742090322788944</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.05966213970914774</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.06193406587900165</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.06420883088329976</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.06646400897772763</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.06868180010299157</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.07084832787113049</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.07295302556065364</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07498810125835223</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07694807386189796</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.07882937225155334</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08062999053732586</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.08234919287867026</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.0839872619487903</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.08554528566821107</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.08702497735778754</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.08842852495633581</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.08975846541052243</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.09101758077340777</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.09220881294287055</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.09333519433242783</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.09439979209564903</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.09540566382275475</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.09635582289569644</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.09725321192782699</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.09810068292810473</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.09890098301958991</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.09969877292902529</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1004566041209321</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1011746781311946</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1018546758439194</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01251522571942893</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01372053382812068</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.0147691129557113</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01571647441511764</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01660605142482477</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01747031761046376</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.0183326280293763</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01920897904766459</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.02010953506169671</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.02103991270397041</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02200224593326797</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02299606097219899</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.0240189887757695</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02506733985810772</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02613656325848068</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.02722160855935646</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.02831720726977892</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.02941808756957844</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03051913436265942</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.03161550479133324</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.03270270779629218</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.03377665494577767</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.0348336885808524</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.03587059231072937</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.03688458802364266</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.03787332283719133</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.03883484878154407</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.03976759747506842</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.04067035160207214</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.04154221462507925</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.04238257984937192</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.04319109969656974</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.04396765582902133</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.04471233059094966</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.04542538008969038</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.04610720912582513</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.04675834809006862</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.04737943187355341</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.04797118078333447</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.04857640060146678</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.04915359873952933</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.04970273653103595</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.05022463854779687</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1087632215878252</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1105870885732491</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1107893391757312</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1097464874739454</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1077605451171067</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1050781034468148</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.101900526568872</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.09839128263248242</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0946819252712071</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09087717707563986</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.08705929440963198</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.08329181754995475</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.07962278529818703</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.07608748153390227</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.07271077318068539</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.06950909237799491</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06649210970995174</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06366413998302391</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.06102531720915032</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05857257109756659</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.05630043344852179</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.05420169933760675</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.05226796484497243</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.05049006028626184</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.04885839541117118</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.04736323082326706</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0459948879152636</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04474390788366706</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04360116886355762</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.04255796888793676</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.04160608120769127</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.04073778749036253</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.03994589353249187</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.03922373135653601</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.03856515090565475</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03796450398569673</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0374166226221964</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.03691679359096962</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0364607305347913</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.03602686163301568</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.03562156314434406</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.03524796226818022</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.03490446177514403</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.03989934337549508</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.03755172368653918</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03342754390125939</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0280136537634387</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0216955412210091</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01478243219514722</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.007521570663232738</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0001087532973235716</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.00730305228516695</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01459642498250178</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0216832895475586</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.02849963863552471</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.03500105290940617</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.04115891285047206</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.04695720922856438</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.05238987038551886</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.05745853434831974</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.06217070257191119</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.06653821994414359</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.07057603266407717</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.07430118181453328</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.07773199596659651</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.0808874510463819</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.08378667002453552</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.08644853881233402</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.08889141811527845</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.09113293395164797</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.09318983213148779</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.09507788424934631</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.09681183470695438</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.09840537998218379</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.09987117282754962</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1012208453421203</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1024650459394526</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1036134861532235</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1046749940015958</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1056575712889808</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1065684527758504</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1074141656079023</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1082352831229208</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1090109730964092</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1097388092830757</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1104215430227228</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.4293109763036683</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4290658782959953</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4264176559975374</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4220106023021122</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4163527801377133</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4098508356113355</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.402829422171686</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3955453446294954</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3881990581083635</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3809443512064504</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3738965693684217</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3671395982194386</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3607317775471578</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3547108909322091</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3490983574631669</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3439027363928523</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3391226419064573</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3347491530264577</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3307677928945439</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3271601421073437</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3239051423151871</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3209801388070398</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3183617041962954</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3160262794982805</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.313950663767764</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3121123789689532</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3104899328144435</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3090629988731164</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3078125302556369</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3067208205907187</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3057715237611023</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.304949641934807</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.3042414897681128</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.3036346412388682</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.3031178643623348</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.3026810480201385</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.3023151242720302</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.3020119887986825</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.30176442152266</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.3015596490861964</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.3013854351036426</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.3012464789474246</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.3011405015020296</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6301276125903186</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6182749211825492</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6054980521408114</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5922992354893165</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5790546489305191</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5660467627532715</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5534838328135391</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5415144090169094</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.530239053114841</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.519720039416081</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5099894234269604</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5010557397960642</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4929095378700263</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4855279306586451</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4788783080486529</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4729213441560735</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.467613410639672</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.462908492105945</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4587596860871673</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4551203582021453</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4519450127876794</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4491899303216927</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4468136151773203</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4447770905043638</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4430440712028401</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4415810409214352</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4403572546835645</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4393446850290535</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4385179263837097</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4378540696643933</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4373325568333789</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4369350231792753</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4366451334750883</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4364484168050666</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4363321037235771</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4362849684786077</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4362971782707541</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4363601509004301</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4364664216594812</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4366062401068416</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4367680911412045</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4369540117126942</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4371615330452115</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.006765275071102611</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.01278058836316054</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.02989675085043823</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.04485781406538084</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.05791891771365337</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.06931141804278103</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.07924301877826036</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.08789909429053744</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.09544434857812575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1020245490281261</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1077682391529757</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1127883869875476</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1171839464831238</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1210413196365696</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1244357133822018</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.127432389445164</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1300878082180681</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1324506696963367</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1345628558497858</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1364602796913752</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1381736468495681</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1397291357447731</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1411490025759521</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1424521172876313</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1436544365460112</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1447694195333996</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1458083920947693</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1467808644564244</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1476948073987073</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1485568914137803</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1493726930248815</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1501468720923175</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1508833235893743</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1515853070025688</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1522555561982684</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1528963723037933</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.153509701876979</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1540972023844745</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.154660296775877</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1552471610572909</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1558129689943582</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1563559192212941</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.156876489531665</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4119749161848061</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.407188848977395</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4020283819485816</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3966615897709809</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3912148989220045</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3857857038815494</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3804486880287949</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3752601245745553</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3702612530135034</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.365481066347051</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3609386447374442</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.356645113537866</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3526052830376043</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3488190168982084</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3452823691804805</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3419885242227083</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3389285688817654</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3360921225800205</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3334678470934708</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3310438549830367</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3288080329410357</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3267482940403508</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3248527708864737</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3231099599424332</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3215088257901248</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3200388727806082</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3186901903865169</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3174534775811569</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.3163200507131848</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.3152818386071212</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.3143313679844202</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.3134617417549145</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.3126666122631367</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3119401511783506</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.3112770173822721</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.3106723239265397</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3101216048959408</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.309620782816993</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.3091661370891664</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.3087122248501613</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.3082938620540724</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.3079124274665532</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.3075661697849992</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3645789972144746</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.3617823111240968</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3566584949374884</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.349870901968857</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3419422357014842</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3332888292180878</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.324240741848025</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3150567361520874</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3059365370705465</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2970311603441338</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2884516700726298</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2802765987535316</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2725582147789473</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2653277953259051</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2586000423462871</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2523767622251539</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2466499146131907</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.241404122593209</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2366187245114803</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2322694373322318</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.228329692115051</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2247716940411653</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2215672522095833</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2186884180842736</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2161079659063267</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2137997435076274</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2117389177005876</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2099021347050011</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2082676128476002</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.2068151819776629</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2055262816335284</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.2043839279252537</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.2033726573273994</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.2024784540665332</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.2016886665076223</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.2009919168626172</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.2003780076368746</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1998378274712021</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1993632584084304</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1989282514691919</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1985338800304637</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1981831915074682</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1978731521027373</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.5888524262445674</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5957378998064924</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5987628132774113</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.59882213321322</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5966424192928294</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5928162572312533</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5878249428686698</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5820563716027832</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5758200660110688</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.569360021143517</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5628657133110964</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5564815176393467</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5503147386508805</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5444424328334916</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5389171817150082</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.533771955848834</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5290241937409805</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5246792049656572</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5207329934272074</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5171745848294871</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5139879317982851</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5111534606547787</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5086493154488415</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5064523474277148</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5045388915436719</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5028853658075587</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5014687241948539</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5002667893355802</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4992584873038666</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4984240034077327</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4977448749106754</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4972040340444773</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4967858124525107</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4964759162938563</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4962613796038902</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4961305021132111</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4960727765438194</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4960788094023165</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4961402384504274</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4962585920335996</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4964084490084327</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4965902238490742</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4968005926168945</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.4143432691693051</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4070369518024565</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3984403066697709</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3890527233763028</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3792570904768161</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3693488428044285</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3595534024036802</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3500392247921613</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3409284079377204</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3323055393734369</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3242251111427669</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3167177247225905</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3097952633441166</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3034551822917018</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2976840472100027</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2924604331041917</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2877572816439699</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2835438011899767</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2797869824043513</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2764527921874883</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2735070998289552</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2709163815219255</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2686482426356542</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.266671791254131</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2649578913696332</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2634793196780306</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2622108460790522</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2611292546687816</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2602133191604799</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2594437442271796</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.258803082175053</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2582756325853397</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2578473310644568</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.257505631980995</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2572393890127713</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2570387364487464</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2568949734644246</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2568004529933623</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.256748476332291</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2567303006716912</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2567345930107127</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.256763793985899</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2568156331390582</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.02904404076339501</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.03237169899377375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.03730443521874731</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.04336999809460539</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.05019528176700665</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.05748338377827514</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.06499953957248299</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.07256039575726596</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.08002515676898345</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.08728810621387431</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.0942722609147662</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.100923993747661</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1072084928113161</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1131059430261978</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1186083305266319</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.123716782424022</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1284393653061695</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1327892754293548</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1367833620907314</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.140440933246609</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1437827991631093</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1468305158358073</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1496057951722226</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1521300535655576</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1544240745632916</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1565077649075639</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1583999863479581</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1601184483489835</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1616796491777236</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1630988549015225</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1643901075873894</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1655662555070119</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1666389994437255</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1676189502975481</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1685156941157704</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1693378614614327</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1700931986898281</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1707886392513022</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1714303735924561</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.17204524116079</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1726239970450953</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1731652281383871</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1736715565297745</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.134113785678501</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.000986443539083</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.848208988143027</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.683897481278569</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.514403893668892</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.344625502280032</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.17826314767891</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.018039019560918</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.865880583608006</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.723075519586026</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.590401722365614</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.468235875029939</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.356643659420944</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.255454280688926</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.164321637298206</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.08277416196334</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.010255088656871</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.946154662717276</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.889835601844433</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.840652932246412</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.797969163513561</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.761165625353491</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.729650666814527</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.702865312001847</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.680286873722584</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.661430946354372</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.645852130060801</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.633143778974723</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.622937014969893</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.614899205098642</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.608732063753426</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.604169509277966</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.600975378364727</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.598941079467168</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.597883248040233</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.597641451181461</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.598075976720388</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.599065731593507</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.600506266094686</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.602440008018776</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.604631208486581</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.607019114041874</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.609555278582058</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.413963985769266</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3940278516153295</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3773785412570845</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3635396510854227</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3521163310090406</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3427668604504067</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3351917342280853</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3291282121941425</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3243464173965703</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3206459584295611</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3178528316076862</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3158165525445606</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3144075094383642</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3135145360376138</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3130426999795465</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3129112990561812</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.31305205548245</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3134074965735776</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3139295092551959</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.314578055370863</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3153200346839384</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3161282826897506</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3169806907795452</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.317859436868158</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.318750315265004</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3196421552957812</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3205263189414896</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3213962685297095</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3222471962735736</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3230757081937108</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3238795556682545</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3246574085292102</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3254086642556934</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3261332884032532</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3268316819525132</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3275045717597386</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3281529207474665</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3287778548865537</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3293806043938339</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.329959771567407</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3305172683963432</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.331060737344929</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3315893626920024</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.332393409407496</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3152754468017773</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2992715155081475</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2844277363644031</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2707594314321097</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2582566269865502</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2468888195071934</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2366101628707244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2273640479640849</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2190868621438385</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2117109851876947</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.2051671337281285</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1993861647813621</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1943004352521494</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1898447995256231</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1859573140336081</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1825797063636748</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1796576569013592</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1771409329076883</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1749834081004984</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1731429950304869</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1715815126577013</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1702645074064082</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1691610424941467</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1682434674005941</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1674871768844681</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1668703669044199</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1663737930946129</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.165980536037169</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1656757764183117</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1654465822149538</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.165281709300778</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1651714162569424</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1651072936976982</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1650821080540096</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1650896594803538</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1651246533454148</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1651825846229184</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1652596344029028</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1653638650703998</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1654549423577544</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1655572098327035</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1656694603709102</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2089521651209326</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1887753585383677</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.170600997865367</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1543046545649392</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1397661656874788</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1268631069375374</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1154703649307912</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1054624209085178</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.09671580415947775</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08911108086975106</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0825343124693638</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.07687805112940363</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.07204195929699087</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.06793313235824576</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.06446619103936188</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.06156319834157644</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.05915344567902638</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.05717314442674436</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.05556505205808139</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.05427805621914562</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.05326673525006848</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.052490909653632</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.05191519569642333</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.05150856959578894</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.0512439485058516</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.05109779269095076</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.05104973180007558</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.05108221697581762</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.0511801995986834</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.05133083674163999</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.05152322285560451</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.05174814679435438</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.05199787299143285</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05226594540027066</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05254701268343944</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.0528366730720804</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05313133729898721</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05342810802763392</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05372467424554616</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05404496844948701</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05433408204060371</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.0546200852852972</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05490212421183088</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>0.9351550265189098</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9144069590163841</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.896479366890892</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8810251254178676</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.86779680544213</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8565770814431268</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8471628478316472</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8393626364894164</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8329969322171905</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8278988054499669</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8239142912465691</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8209024463610702</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8187351314627127</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8172965830272442</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8164828336893082</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8162010298718075</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8163686858991024</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8169129055065402</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8177695947279336</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8188826844250123</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8202033760432096</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8216894203755429</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.823304436050795</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8250172720135434</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8268014163290331</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8286344521377952</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8304975604287452</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8323750684320184</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8342540418006552</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8361239183085074</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8379761805027394</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8398040645816223</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8416023026958298</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8433668958725474</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8450949148185659</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8467843259566057</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8484338401765351</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8500427819303331</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8516109764589596</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8531294766393767</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8546434095678074</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.856127503772791</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8575756171364333</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.441612266997033</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.09635886323947</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.78656771857121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.510143330618217</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.264787404271188</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.048112617221295</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.8577187703161</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.691247085420616</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.546419193546522</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.421064482608994</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.313138360518197</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.22073340131558</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.14208494601906</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.075572428638265</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.019717457495313</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.97317948661584</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.934749751761644</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.903344013688261</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.877994542143182</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.85784168386688</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.8421252831811</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.830176162058485</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.821407815765932</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.815308438534796</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.81143335979592</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.809397944114022</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.808870986034253</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.809568613733071</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.811248701890959</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.813705783928095</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.816766446109865</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.820285180561824</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.824140670527626</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.828232478914332</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.83247811000615</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.83681041394581</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.841175303978026</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.845529757352699</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.849840072057468</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.854046446483526</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.8581649127075</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.862188215809319</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.866108225150499</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8617856156630215</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.832267846592037</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8067555100097329</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7847738429112302</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7659240738040244</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7498495033271448</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7362254809016961</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7247564192217439</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7151743299942978</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7072374960993915</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.7007290084105546</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6954551663213088</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6912437945119931</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6879425291514548</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6854171165708632</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6835497567323797</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6822375147127675</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.681390816118088</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.680932036600476</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6807941911764415</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6809197256001156</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6812594094225319</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6817713284073721</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6824199725441367</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6831754148957734</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6840125758532407</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6849105669738117</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.68585210839518</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.686823013796091</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6878117369772382</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6888089743316093</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6898073177353871</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6908009526978171</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.691785396944363</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6927572749585205</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6937141243633896</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6946542303764083</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6955764849134367</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6964802672471633</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.6973616334936082</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.698219023793391</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.699063577502169</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.6998929947003364</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.335252367111341</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3560037004436324</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3725412694230522</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3856088923228509</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.3958252674422857</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4037101391919267</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4097014975529207</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.41416764105333</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.417416974501313</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4197064450971361</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4212489191225117</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4222196420676412</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4227618824974614</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4229918461126919</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4230029390447944</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4228694531823136</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4226497402359788</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4223889352542748</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4221212845074233</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4218721271610296</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4216595750182751</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4214959298476343</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4213888734368307</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4213424615154521</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4213579490531443</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4214344711483499</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4215696007529154</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4217598018085816</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4220007939803851</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4222878430377532</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4226159890356403</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4229802227653545</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4233756194585515</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4237974374200922</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4242411881188891</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4247026832644377</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4251780635254629</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4256638127920428</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4261567612309023</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.426671832083472</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4272134237142401</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4277505454857059</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4282818386065007</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.6981909992183148</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6775147230146334</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6596341595192861</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6442265405281731</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6310130655681851</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6197426710948113</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6101867640828145</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6021374874895608</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.595406706292176</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5898250115920424</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5852406206187032</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5815181886585876</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5785375730112099</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5761925860470911</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5743897664380373</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5730471899425418</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5720933347764522</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5714660115742963</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5711113640382092</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5709829433623602</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5710408572286076</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5712509924474006</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5715843090503404</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.572016202734422</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5725259319383651</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5730961054384721</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5737122261363782</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5743622866341908</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5750364122215438</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.57572654700771</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5764261790987216</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5771301009272227</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5778342010775643</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5785352841994577</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5792309158615605</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5799192894549289</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5805991125101377</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5812695100372129</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.581929942731556</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5825801361980179</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5832110593523011</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5838347392829887</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.584450236788975</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8469487640619735</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8318575232966929</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8191672013322004</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8085510608617312</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7997357682591838</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.792482321841793</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7865788793733305</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7818375346335064</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7780921242558538</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7751963025373273</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7730217169523801</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7714562638556678</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7704024342139815</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7697757611709456</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7695033773389695</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7695226854364778</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7697801424059028</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7702301545545129</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7708340794212221</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7715593288298239</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.772378566805932</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.773268995601324</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7742117228988578</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7751912032958487</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7761947473307605</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7772120915858854</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7782350237351637</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7792570567864</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7802731471716458</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7812794517537732</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7822731192301547</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7832521118178053</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7842150534923721</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7851611014219666</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7860898375833273</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7870011778706714</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7878952963061059</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7887725622346404</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7896334886370877</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7904830122325117</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7913099084765938</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.7921252981473769</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7929286539373614</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7343981412489985</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7462955514723009</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7561558451583771</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7643688910559082</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7712349199202655</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.7769986410108928</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.7818634378619365</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.7859988960207704</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.7895460893895826</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.7926218659231461</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.7953224981250973</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.7977268332617619</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.799899016112523</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8018908380602896</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8037437582179014</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.805490637006568</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.807157218202495</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8087633915139735</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8103242641575015</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.811851066647327</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8133519150811558</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8148324495738305</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8162963661355124</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8177458571857826</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.819181974015739</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8206049228342269</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8220143045416091</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8234093070469422</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8247888577658901</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.826151742892743</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8274966991174171</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8288224826454157</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8301279196646215</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8314119417775203</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8326736093718909</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8339121254287883</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8351268418560446</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8363172600814759</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8374830273360493</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8386794958031877</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8398527344351913</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8409953245652965</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8421096633851959</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.8000277235995437</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8004490524188435</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8010078570892113</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8016859656345513</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8024686860732013</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8033424958408982</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8042946630758331</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8053132784728845</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8063873386062358</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8075068010267613</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8086626011739607</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8098466373894165</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8110517327836445</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8122715817662923</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8135006874487357</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8147342945942413</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8159683214993604</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8171992931607761</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8184242772885683</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8196408241322564</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8208469106517443</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.822040889256854</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8232214411268896</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8243875339813107</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8255383840847328</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8266734222190468</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8277922633310608</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8288946795572106</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8299805763314421</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.831049971293974</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8321029757342923</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8331397783193691</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.834160630876452</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8351658360179747</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.836155736413733</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8371307055321875</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8380911396884494</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8390374512511863</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.839970062874314</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8409027702862548</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8418240371675977</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8427328752322781</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8436294382976355</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7453692411620884</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7455563768315859</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.746470163418504</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.747934949632419</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7498101265443839</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.751981339208986</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7543557027217299</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7568583277454414</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7594294672228962</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7620220793999892</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7645997274090557</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.767134769902582</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7696068079724819</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7720013582075255</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7743087247263224</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7765230455330292</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7786414908674131</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7806635934239723</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7825906924023864</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.784425475316338</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7861716033211433</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7878334075164479</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7894156452353328</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7909233067455443</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7923614640650264</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7937351547375331</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.7950492944317675</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7963086131272579</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.7975176104410273</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.7986805263402587</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.7998013240869712</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8008836827803562</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8019309973095808</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8029463839128892</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.803932689865255</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8048925060937893</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8058281817538681</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8067418399953065</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8076353943119593</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.808517439234069</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8093860212983568</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.810239906910888</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8110797613734262</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7146260841390278</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7139862866137865</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7142115099871754</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7151063814594087</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.716512933202854</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7183016156325258</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.720366285002637</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7226205234211017</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7249945973415449</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.727432847594792</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7298914306656993</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7323363652876178</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7347418490086239</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7370888138467506</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7393636930405304</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7415573733665345</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7436643098117542</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7456817816069381</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7476092707445016</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7494479461082744</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7512002382198364</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7528694913489249</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7544596813386206</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.755975188958708</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7574206199247833</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.758800663910871</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7601199859459793</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7613831445279357</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7625945316196561</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7637583304228373</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7648784874610957</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7659586960579273</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7670023887732131</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7680127367736658</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7689926544652463</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.769944808016322</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7708716266556284</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.771775315844815</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7726578716067213</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7735284434975008</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7743843500556573</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7752248148411387</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7760505790240532</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6853586770165409</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6777262244916363</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6715305155515946</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6665643131653927</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6626466949974837</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6596193228526455</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.657343981954463</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6557004928526015</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6545847984790686</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6539071882148854</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6535906555901205</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6535693909195764</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6537874082610461</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6541973033765059</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6547591371758908</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6554394375972855</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6562103119369206</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6570486611591309</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6579354875752352</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6588552873877767</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6597955198795589</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6607461454289889</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.661699225011216</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6626485743658413</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6635894665521038</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6645183771534834</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6654327669226512</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.666330897165564</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6672116736442392</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6680745152275954</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6689192439367291</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6697459934143992</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6705551331986308</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6713472064981022</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6721228794538433</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6728829001294173</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6736280657021508</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6743591965330801</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6750771159751902</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6757818748731889</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6764768876381494</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6771618819723008</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6778372978035133</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.5775584334728379</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5813654077846396</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.584968679222166</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5883492051250374</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5914998125275983</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5944204485092333</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5971159675391441</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5995947341304866</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6018675871448054</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6039470254302863</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6058465585875725</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6075801914889529</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6091620200448347</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.610605919989896</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6119253132314989</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6131329984514776</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6142410344648416</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.615260666423642</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6162022863603962</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6170754208189555</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6178887394370559</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6186500793348103</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.619366481035819</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6200442324105595</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6206889177934005</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6213054699933305</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6218982234028715</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6224709668182273</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6230269949249726</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6235691576856558</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6240999070962687</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6246213409647555</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.625135243513111</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6256431227210193</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.626146244418604</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6266456632032864</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6271422503049243</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6276367185577866</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6281296446603701</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.628617860165024</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.629107333565417</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6295968120805385</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6300861874885025</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7488034652870442</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7527849331955049</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7562270793030085</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.759217862191945</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7618339588480594</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7641406203562222</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7661928458287112</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7680367432707159</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7697108009771215</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7712470121291922</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7726718521080493</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7740071220711825</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7752706747846304</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7764770379640968</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7776379488095465</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7787628117263106</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.779859089637559</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.780932637878643</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7819879884358896</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7830285912402033</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7840570183291841</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7850751359279707</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7860842488470134</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.787085221035337</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7880785756444234</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7890645775373697</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.790043300809998</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7910146835667301</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7919785719078541</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7929347548311965</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7938829915261442</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7948230323381851</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7957546345050193</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.7966775736085243</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.7975916515485058</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.7984967017224704</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.7993925919890119</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.800279225899359</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8011565426008249</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8020413244594955</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8029170642774495</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8037830235148646</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8046391326892446</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5468350451544207</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5462098755292426</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5462979913400559</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5469385440853898</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5479997038094436</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5493731773732602</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5509704402436163</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5527196942021324</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5545632736904283</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5564554033821187</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5583602573643409</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5602502842655885</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5621047679261434</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5639085962355578</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.565651213201213</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5673257315632607</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5689281854177313</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5704569043571442</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5719119925762332</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5732948982084224</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5746080598484476</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5758546187735548</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5770381867989142</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5781626609939612</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5792320776493747</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5802504989251208</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5812219265355951</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5821502376463183</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5830391388763813</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5838921349305048</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5847125089327359</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5855033120087094</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5862673600729748</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5870072361294711</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5877252966936867</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5884236812006297</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5891043234791223</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5897689645552711</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5904191662008149</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5910602265283482</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.591690866871795</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5923113387668119</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5929223628855802</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6483868721502749</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.643084305600923</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6392609224508499</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6366428901658995</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.635002435218229</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6341481374065221</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6339192460398975</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6341813301661673</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6348225896807668</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6357506327171281</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6368896451870114</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6381779091817174</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.639565635388291</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6410130777979235</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6424889010372137</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6439687726143744</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6454341544056017</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6468712697897</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6482702249199529</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6496242646553466</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6509291456245075</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6521826107416696</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6533839512198109</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6545336437235822</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6556330517706593</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6566841818253127</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6576894857358344</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6586517022533962</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6595737313408299</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6604585358434031</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6613090658580779</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6621282018112851</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6629187128461749</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6636832276365822</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6644242151941564</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6651439736244434</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6658446251237766</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6665281157977929</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6671962191298347</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6678440441667706</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6684837259147561</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6691138283125838</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6697348767963641</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.6869957931012433</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6829565731898223</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6799573023141849</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.677821425671909</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.676398818357635</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6755613558985313</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6751999530811539</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6752221349684353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.675549902049061</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6761178230236715</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6768713306314327</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6777652052562588</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6787622325566506</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6798320213108333</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6809499675777263</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.682096351445885</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6832555530789832</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6844153754065301</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6855664615873684</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.686701796235935</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6878162803035246</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6889063704156071</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6899697743569434</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6910051952513193</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6920121177903258</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6929906306183586</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6939412796750067</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.694864947929876</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6957627575193087</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6966359908113747</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6974860273878188</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.6983142943428899</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.6991222276629386</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.6999112427713503</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7006827126046929</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7014379518317665</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7021782060411812</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7029046449086033</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7036183585150705</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7043207631158459</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7050139306390236</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7056978481525158</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7063730294393011</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6665120167710771</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.668713289420071</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6711978131662373</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6738599663543524</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6766185485217405</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6794104955063016</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.682187283033903</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6849122889258817</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6875586472101773</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6901074442486641</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6925461916878919</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6948675357998226</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6970681716626582</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6991479351256334</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7011090486487573</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7029554997394506</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7046925330624535</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7063262394528269</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7078632270409195</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7093103615136838</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7106745641942221</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7119626581254049</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.713181253698642</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.714336666581452</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7154348617746087</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7164814185797632</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7174815120907896</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7184399075464432</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7193609645082396</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7202486483656332</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7211065471302054</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7219378918707201</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7227455794701249</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7235321966616427</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7243000445311528</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7250511628635068</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7257873538669515</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.726510204937504</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7272211102283633</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7279243917507663</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7286199863300109</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7293073465948231</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.729986922039522</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6391459536886054</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.644425963326113</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6501329952388895</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.656053399710911</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6620273049121705</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6679340577236059</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6736839823372323</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6792123896376181</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6844747592785401</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6894427394439685</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6941008027042433</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6984434547572203</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.7024729154354475</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7061972038267986</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7096285684468813</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7127822109613697</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7156752585437895</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7183259457806846</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7207529722110576</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7229750061845054</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7250103098006462</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7268764633003441</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7285901704603397</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.730167129336673</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7316219551453591</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7329681441953566</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7342180696311503</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7353830013303417</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7364731436636968</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.737497685987202</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7384648617219107</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7393820127096752</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7402556562312146</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7410915526553487</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7418947721706638</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7426697594477168</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7434203954036828</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7441500555032514</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7448616642392257</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7455556104435779</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7462414321340627</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.74691702860816</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7475831428143805</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.267582814805334</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.26155872348925</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.255942073610588</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.250908378352394</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.246568305074489</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.242984010325089</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.240180690348788</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.238155592112362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.236885249283094</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.236331315536713</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.23644524410112</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.237172009411461</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.23845303402167</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.240228458656215</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.242438872101653</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.245026599488367</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.247936631925909</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.251117267098654</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.254520519015773</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.258102345383468</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.261822732798156</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.265645672943991</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.269539057039786</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.273474510765467</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.277427187674246</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.281375535549404</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.285301047195881</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.289188004682024</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.293023223993226</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.296795805364009</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.300496893164516</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.30411944808469</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.307658033444769</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.311108616729474</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.314468386865832</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.317735587315428</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.320909364709248</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.323989632498384</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.32697694891091</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.33001298854335</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.332952078285138</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.335797989581372</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.338553486225902</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9848763589079856</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9801727187310645</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9757155397893411</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9716674168129551</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.9681346678156315</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9651810987303506</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.9628378519094711</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.9611111479768172</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.9599885331838663</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.9594439366455362</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.9594417444926548</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.9599400553230902</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.9608932544833417</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.962254023762026</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-0.9639748854130478</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-0.9660093642430623</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-0.9683128384235778</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.970843138456935</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-0.973560944105719</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-0.976430020877558</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-0.9794173306538532</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.9824930450955639</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.9856304854061455</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-0.9888060077544952</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-0.991998850049712</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.9951909527198193</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-0.998366763596616</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.00151303487786</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.004618618365171</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.007674263708705</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.010672423182347</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.013607065526675</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.016473500597335</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.019268215914475</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.021988725699378</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.02463343258561</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.027201501885358</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.029692748061062</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.032107532884484</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.034563961890581</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.03694023578321</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.03923956288594</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.041464180706243</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8753580894637815</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8687067651911017</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8621627507139427</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8559674280463968</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8502871280204294</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8452307491357858</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8408624534367711</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8372117134265861</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.83428147671669</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.83205482649996</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8305003938303259</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8295767249660223</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8292357742904484</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8294256679254243</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8300928617460337</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8311837990638195</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.832646157304056</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8344297592445529</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8364872125364192</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8387743310488837</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8412503828538925</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.843878202200342</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.846624196454283</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.8494582735534799</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.8523537109143907</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.8552869828255852</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.8582375600669178</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.8611876927239887</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.8641221848491054</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.8670281676889985</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.869894876600251</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.8727134354571751</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.875476651281536</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.8781788209523987</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.880815551155663</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.8833835921790797</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.8858806857259206</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.8883054265886416</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.8906571377752404</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.8930570705113065</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.8953779135096015</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.8976226719812239</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.8997932014064192</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.64134196078077</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6353547039637817</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6295970355349442</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.624239221358768</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6193947043304304</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.615133627075924</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.611492648794172</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6084827108647671</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6060953298663566</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6043077115598461</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6030868875922203</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6023930357980203</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6021821190338486</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6024079572134834</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6030238301250812</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6039836939132976</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6052430814255488</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6067597456912462</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6084940964035926</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6104094712083985</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6124722766987066</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6146520281139359</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6169213117130772</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6192556895156962</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6216335624797629</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6240360051224936</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6264465820118995</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6288511543949514</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6312376834243855</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6335960349488704</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6359177895959285</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6381960608648222</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6404253231238527</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6426012507439153</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6447205690724006</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6467809175367254</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6487807248461164</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6507190960175486</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6525957107731344</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6545101225129143</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6563586174991403</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6581435354741485</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.6598665004252968</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05043257671281368</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.04797657051073082</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.04574552750090735</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.04378838694354666</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.04213259897645261</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.04078984897743122</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0397600166881904</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.03903423093424779</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.03859730752773968</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.03842970482794802</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.03850908385735161</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.03881154028187717</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.03931256407087316</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.03998777405564333</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.04081346748386751</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.04176701857419027</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.04282715481973347</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.04397413525284447</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.04518985097356054</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.04645786488225045</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.04776340467384534</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.04909332068640214</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.05043601809699493</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.05178137117589345</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.0531206258039532</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.05444629519123505</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.05575205267455313</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.05703262458922576</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.05828368548051529</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.05950175732092809</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.06068411391128543</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.06182869124933948</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.06293400433494516</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.06399907063263857</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.06502334021987442</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.06600663250263804</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.06694907927153933</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.06785107379386848</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.06871322558454501</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.06959536053729162</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.07043674517314089</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.07123910761681772</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.07200378800402756</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8658058067230537</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8582488728188072</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8510090368140714</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8442765027729976</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8381759710436534</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8327830278301717</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8281355293911423</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8242424672250043</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8210911085916198</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8186527820771536</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8168875482370043</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8157479419674882</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8151819416289701</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8151352960744431</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8155533208943344</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8163822582243373</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8175702798803492</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8190682010553293</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8208299610671934</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8228129184485129</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8249779998097208</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8272897352057949</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.829716207033462</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8322289346444298</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8348027127609122</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8374154183196408</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8400477974602263</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8426832419356539</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.845307562189573</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8479087626584522</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.850476823465902</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8530034915374953</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8554820832390563</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.8579072998965782</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.8602750569630541</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.8625823271319009</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.86482699733706</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.8670077393080411</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.8691238931485512</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.8712810454393651</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.8733676442369934</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.8753868854803371</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.8773404772388197</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8658058067230537</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8582488728188072</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8510090368140714</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8442765027729976</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8381759710436534</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8327830278301717</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8281355293911423</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8242424672250043</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8210911085916198</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8186527820771536</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8168875482370043</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8157479419674882</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8151819416289701</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8151352960744431</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8155533208943344</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8163822582243373</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8175702798803492</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8190682010553293</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8208299610671934</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8228129184485129</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8249779998097208</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8272897352057949</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.829716207033462</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8322289346444298</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8348027127609122</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8374154183196408</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8400477974602263</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8426832419356539</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.845307562189573</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8479087626584522</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.850476823465902</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8530034915374953</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8554820832390563</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.8579072998965782</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.8602750569630541</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.8625823271319009</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.86482699733706</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.8670077393080411</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.8691238931485512</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.8712810454393651</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.8733676442369934</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.8753868854803371</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.8773404772388197</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.111689049478732</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.108382207527756</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.104533893280033</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.100516606670388</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.096604636474642</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.092995638250613</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.089826371013179</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.087185289289948</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.085122886601354</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.083660227568785</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.082795964762652</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.082512077009985</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.082778529347751</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.08355702628801</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.084804005764494</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.08647299998445</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.088516470976131</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.090887212599374</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.093539396904765</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.096429330734408</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.09951597812218</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.102761295164018</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.106130416402657</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.109591725241432</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.113116835323995</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.116680505064523</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.120260503475915</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.123837442025114</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.127394584360941</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.130917643337081</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.134394572726976</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.137815359342196</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.141171819872437</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.144457405620935</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.147667017376526</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.150796831910559</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.153844140985165</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.156807203284823</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.159685109314679</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.1626260115364</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.165473824690777</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.16823205370972</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.170902802518451</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1816187685504556</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1758979600338626</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1706503755290098</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.165940159470302</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1617998215319343</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1582387098997935</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1552489424209097</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1528099987840077</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1508923795464918</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1494605307988444</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1484751671352645</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1478950967580885</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1476786347987083</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1477846774251011</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1481734981043664</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1488073178533584</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.149650693137705</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1506707580678329</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1518373515303419</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1531230547493785</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1545031603796354</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1559555904900823</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1574607776185324</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1590015203859969</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1605628228904629</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1621317251944796</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.163697130629246</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1652496343155031</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1667813562097351</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1682857810891344</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1697576071609624</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.1711926043956472</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.1725874832158913</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.1739397738069109</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.1752477160290378</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.1765101596989789</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.1777264748477788</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.178896471451541</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.1800203280563398</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.1811684922317947</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.1822683609150984</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.1833219642719008</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.184330693647039</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.003106646652142</v>
       </c>
+      <c r="F55" t="n">
+        <v>-0.9978758208995653</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.9930060890861251</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.9886470291469804</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.9848929845641433</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.9817966375207519</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.9793788485227548</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.9776364053487955</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.976548265474443</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.9760805937316118</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.9761908048491361</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.9768307785251221</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.977949387461628</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.9794944573068642</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.9814142592896417</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-0.9836586207263811</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.986179725158959</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.9889326623661638</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-0.9918757786408241</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.9949708693205127</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-0.998183248406973</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.001481724035636</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.004838503411053</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.008229046475762</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.011631883915649</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.01502841202641</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.01840267438868</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.021741138151016</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.025032470937218</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.028267322923315</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.031438117423006</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.034538852338174</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.037564914038356</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.04051290459981</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.043380482835256</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.046166219157239</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.04886946402243</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.05149022948471</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.0540290832278</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.056610448734075</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.059106831159082</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.061521356166432</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.063856436404693</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8797250856374336</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8726915248615613</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8668556504092717</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8621553950461811</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8585143984429139</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8558483167418207</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8540690285652778</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.853087673684879</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8528168904898077</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8531724425422477</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8540743632218121</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8554477183224899</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.857223067515598</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.8593366909720425</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.8617306354443629</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.8643526241096066</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.8671558661197838</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.8700987948403842</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.8731447579656537</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.8762616778995724</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.8794216968274988</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.8826008176421231</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.8857785492155192</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.8889375623309188</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.8920633608223252</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.8951439710488073</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.8981696516955351</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9011326249966745</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9040268297750688</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9068476961556978</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9095919414050925</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9122573860527561</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.914842789242694</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9173477021261461</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9197723380261987</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9221174580691042</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.92438427097592</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9265743457332306</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9286895359064706</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9308264058269813</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.932889672272712</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9348820637448193</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9368061993167959</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9158692857178958</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9110909797340335</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9073396753377658</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9045657387245438</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9027069802445915</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9016926116375918</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9014469146076216</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9018922206469911</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9029512140173318</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9045486534901551</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9066126157166585</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9090753524716519</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9118738403509454</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9149500885616551</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9182512590780301</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9217296437082289</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9253425343914099</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9290520161362558</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9328247062401306</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9366314586266661</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9404470481620485</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9442498465290329</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9480214985428901</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.951746605591103</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.955412421088653</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-0.9590085613952777</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-0.9625267344826688</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-0.9659604877196832</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-0.9693049754213123</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-0.9725567462479399</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-0.9757135501162478</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-0.9787741639676851</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-0.9817382355141542</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-0.9846061439264028</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-0.9873788763341298</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-0.9900579189560847</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-0.9926451616634745</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-0.9951428147925461</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-0.9975533370554767</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-0.999989930339624</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.002342357683348</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.004613052495813</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.006804910215994</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.09432077824847</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.083380035722035</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.074556690017901</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.067634134856854</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.062404500450395</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.05867103530076</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.056249709289397</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.054970145424754</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.054676017715207</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.055225039927538</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.05648864963244</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.058351472330272</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.06071063346307</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.063474971912119</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.066564196877626</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.06990802047706</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.073445290636222</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.077123142577918</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.080896182178224</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.084725710442038</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.088578995166467</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.09242859336164</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.096251726058552</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.100029705648653</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.103747414784314</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.107392835051595</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.110956623048488</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.114431731114235</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.117813069718757</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.121097208402702</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.124282112131489</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.127366909968869</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.130351693069341</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.133237339119653</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.136025360516189</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.138717773737827</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.141316987555756</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.143825707906851</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.14624685744123</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.14868106690034</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.151031863531891</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.153302374141573</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.155495784641167</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.823148115912915</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8115974801913829</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8014565288883484</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.792701249018806</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7852778020412289</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7791129889624316</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7741211907143692</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7702095144769817</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7672817215862275</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7652412200933197</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.763993309790803</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7634468245038623</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7635152894658115</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7641176911153357</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7651789399173707</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.7666300928249453</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7684083902498479</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.7704571525342986</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.7727255726238867</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.7751684346913063</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.7777457826459155</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.7804225576124496</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.7831682194262582</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.7859563638475358</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.7887643444370349</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.7915729057703786</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.7943658328202177</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.7971296198392752</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.7998531608765359</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8025274631053689</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8051453833951779</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8077013879821938</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8101913346604133</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8126122765950926</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8149622866370677</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.817240300868341</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8194459800225095</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8215795873848571</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8236418817755891</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8257301878522695</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8277453098608496</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8296906560051357</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8315685151493266</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4626152107796426</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4518230456421021</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4428062238733321</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4353861283931572</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4293922437898783</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4246635243330819</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4210494639436536</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4184107385269585</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4166194625701974</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4155591395864688</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.415124382404726</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4152204670496436</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4157627715570415</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4166761403816466</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4178942062292046</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4193586939562147</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4210187253523338</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4228301389078993</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4247548348695092</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4267601528355545</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4288182867075097</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4309057398826092</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4330028220598164</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4350931878596599</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4371634165680984</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4392026316536862</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4412021582330481</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4431552163360797</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4450566476193333</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4469026730686604</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.44869067919949</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4504190302878699</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4520869042333106</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4536941497539141</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4552411627357271</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4567287796940744</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4581581864487112</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4595308402621499</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4608484038377415</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4621717648397392</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.463442693680948</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4646631365896624</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4658350298199668</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3765414515004215</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3786514785380886</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3805806142583791</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3823195645906737</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3838659849679197</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3852228997001356</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3863973358149049</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.387399192949119</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3882403235229675</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3889337927395037</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.389493290535837</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3899326712131455</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3902655998185839</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.390505287256277</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3906642986098434</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3907544213367338</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3907865819033728</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3907708011115581</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3907161798502108</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3906309083139221</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3905222928775948</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3903967958190706</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3902600839517973</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.390117082979501</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3899720350261265</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3898285573383125</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3896897006151939</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3895580058016579</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3894355584959509</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3893240403796884</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3892247772859574</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3891387836867158</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3890668035106188</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3890093473025436</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3889667258115067</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.388939080148782</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3889264086965858</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3889285909729547</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3889454086730996</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3889550232252407</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3889791729030314</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3890175135590461</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3890695825609524</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.179606573664324</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.171204029311709</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.164535090925714</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.159458801654327</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.155831658780649</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.153509880203486</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.152352353174672</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.152223088954024</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.152993023523974</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.154541231463444</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.156755660055385</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159533485399217</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.162781177554566</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.166414346607809</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.170357428134984</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.174543255138084</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.178912554008516</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.183413394179381</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.188000614625019</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.192635245034723</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.197283935138692</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.20191840213651</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.206514903334363</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.21105373882082</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.215518787204326</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.219897076016453</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.224178387284493</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.228354897937311</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.232420854081438</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.236372277729874</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.240206704250539</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.24392294859687</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.24752089826677</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.251001330888718</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.254365754339735</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.257616267346103</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.260755438593616</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.263786202471222</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.266711769683122</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.269661716150224</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.272511684770829</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.275264129839784</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.277922518381337</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.6842237003323834</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6632243827026839</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6447475094341508</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6286344657312344</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6147111747530651</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6027974128711789</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5927126187171197</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.584279964228027</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5773292498255156</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5716989135705873</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.567237351010754</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5638036963689708</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5612681854633679</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5595121977752823</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5584280566511114</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5579186515487466</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5578969338269993</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5582853273302669</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5590150865562371</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5600256282048413</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5612638561438152</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5626834950875405</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5642444444045511</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5659121603066255</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5676570721128372</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5694540362275891</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5712818298398348</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5731226850711595</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5749618633134013</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.576787268751208</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5785890995180915</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.5803595345495146</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.5820924539422357</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.5837831904794086</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.5854283099137887</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.5870254175984687</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.5885729891006127</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.5900702225160734</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.591516910311266</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.5929727664579449</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.5943753348268681</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.5957279136799629</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.5970319952686917</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8837847232043801</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8766690080675462</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8697672991358217</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8632974478995514</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8574083752021914</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8521950998090093</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.847710459711457</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8439746603555617</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8409830963796511</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8387127376682861</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.837127310022789</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.836181464224771</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8358240989403963</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8360009788861774</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8366567688554782</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.837736586133526</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8391871581902955</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8409576590518416</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8430002861486325</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8452706294840069</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8477278764416795</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8503348882679436</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8530581780549955</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8558678147711121</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8587372734046604</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8616432475019326</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8645654371879368</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.8674863230812562</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.8703909342765097</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.8732666167078933</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.8761028066698455</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.8788908130086028</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.8816236104697752</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.8842956458563318</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.8869026579873969</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.8894415119242112</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.8919100475223791</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.8943069420591937</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.8966315864544122</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.8990014558692381</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.901293911450862</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9035115848527889</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9056561477624046</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.07777163644481877</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06680894439920235</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05767782225869908</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.05016598566842713</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.04407803389408253</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03923501927397115</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.03547408634650023</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.03264794622455455</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.03062417323391647</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02928436801023887</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02852323527027437</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02824761657262871</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02837550937911236</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02883509598539215</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.02956379966010855</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.0305073804074249</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03161907889232589</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.03285881402276331</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.0341924372972601</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.03559104516928532</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.037030349248569</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.03849010307416822</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.03995358339009977</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.04140712327924644</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.0428396941217258</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.04424253310388036</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.04560881288331006</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.04693334998856338</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.04821234857799712</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.04944317628319096</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.0506241690034515</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.05175446168727436</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.05283384232428488</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.05386262656921033</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.05484155062154442</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.05577168018581713</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.05665433353402742</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.05749101688103481</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.05828337046354748</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.05907622664301537</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.05982777655627884</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.06053978377083716</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.06121392665800901</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7590356497495121</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7501966534007425</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7436264517975339</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7390012055067087</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.736034248266501</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7344713553036835</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7340878320460117</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7346860084797009</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7360928536781111</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7381576731209095</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7407499033960755</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7437570240539799</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7470826014264085</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7506444731512002</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7543730769674931</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7582099233351084</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7621062084541407</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7660215621262858</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7699229234337621</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7737835362706508</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.7775820562283129</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.7813017601172271</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.7849298494263958</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.7884568392174762</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.7918760242751219</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.7951830147485803</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.7983753339914165</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.801452071811939</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8044135868675824</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8072612524577008</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8099972404800727</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8126243388090431</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8151457978220409</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8175652022425497</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8198863648792568</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8221132392220036</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8242498482051319</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8263002267683565</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8282683761353786</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8302377123742154</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8321331588595141</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8339567186422</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8357115971414552</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7229502140707857</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7112617797740153</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7029939298862395</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6975728687641839</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.694504503285146</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6933636832422813</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6937859167261542</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.695460129590879</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.698122150971646</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7015488328906067</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7055527597406126</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7099775107776862</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7146934379837103</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7195939203381556</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7245920551326082</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7296177475152161</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7346151607340381</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7395404913285448</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7443600356156419</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7490485160957691</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7535876387673144</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7579648547119292</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.7621723016472066</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.7662059033991976</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.770064607399112</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.7737497423386737</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.7772644800160247</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.7806133871631187</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.7838020546645962</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.7868367930586913</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.7897243845566656</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.7924718830341912</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.7950864545428189</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.7975752518697793</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.7999453175478974</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8022035104926207</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8043564521282335</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8064104884683301</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8083716651442282</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8103179681840935</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8121844602951908</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8139740098087521</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8156908541493491</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_5.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_5.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3057366489843255</v>
+        <v>-0.4429594313435204</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3168750346129532</v>
+        <v>-0.3992645103509139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2537921765173101</v>
+        <v>-0.4103409201240907</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2264838909210563</v>
+        <v>-0.3765695994791023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1739423208053166</v>
+        <v>-0.3587143775834631</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1460605506844183</v>
+        <v>-0.4018854641427108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0392775579725667</v>
+        <v>-0.1735750763153188</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0746019147878336</v>
+        <v>-0.2816664731996503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1746882417862202</v>
+        <v>0.03489176074543628</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1505426926751276</v>
+        <v>-0.0935226103747592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4348168591987539</v>
+        <v>-0.3664722548637366</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4549700821850928</v>
+        <v>-0.3599127665629931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3017479137648857</v>
+        <v>-0.4589633803383874</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2681618823914937</v>
+        <v>-0.4070203543070836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3665913927150736</v>
+        <v>-0.5089773767051985</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3886549536128331</v>
+        <v>-0.4273772976278596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3350193017966042</v>
+        <v>-0.5498162369676912</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3597580557313836</v>
+        <v>-0.374545635298684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.201413996362001</v>
+        <v>-0.2013791479754209</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.247218855270827</v>
+        <v>-0.310461465834296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.06073402763196965</v>
+        <v>-0.2787778993590344</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07745622716668545</v>
+        <v>-0.3021546202850426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009647227886650445</v>
+        <v>0.1403567773520446</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.007112783682018264</v>
+        <v>0.009251756584211377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1092318074018663</v>
+        <v>-0.1012906188007725</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08881280458427744</v>
+        <v>-0.1319372724767337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.01104068241271955</v>
+        <v>-0.1312577762006944</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03002055446965043</v>
+        <v>-0.05067498419515562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3600398776371558</v>
+        <v>-0.2223208213173879</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4073638009776918</v>
+        <v>-0.1103074485298595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6675480444877696</v>
+        <v>-0.02169987064437204</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6533922235476113</v>
+        <v>0.07646202848093735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1259080900780072</v>
+        <v>0.01688094221336267</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08345790035784724</v>
+        <v>0.0957865711481915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.447143633951009</v>
+        <v>0.04712566691634587</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4219553194489087</v>
+        <v>0.06285428990819035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3258280671008243</v>
+        <v>-0.1099620914004087</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3503954740367983</v>
+        <v>-0.02390915371342364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4663595782780467</v>
+        <v>-0.1034741663147644</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5333769738622589</v>
+        <v>-0.07545065315564811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4217251381338187</v>
+        <v>0.05953571996208409</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4218904866053518</v>
+        <v>0.0883658863476722</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.01948388698339712</v>
+        <v>0.1464629830698457</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03488353509137355</v>
+        <v>0.0691661075748489</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.238099161148293</v>
+        <v>0.4928127554208245</v>
       </c>
       <c r="B24" t="n">
-        <v>4.302167219374502</v>
+        <v>0.352530925714285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5240047011743073</v>
+        <v>0.1871713219774291</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4983464021535683</v>
+        <v>0.1530511597418706</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4475170355807183</v>
+        <v>0.1983283978110824</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3886796852984516</v>
+        <v>0.155439310795237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2860282747291614</v>
+        <v>0.1651000927412564</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2815464012767376</v>
+        <v>0.1400233657687214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.060950435016781</v>
+        <v>0.2526736426165058</v>
       </c>
       <c r="B28" t="n">
-        <v>1.016151521223956</v>
+        <v>0.1833501533540975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.206143487584644</v>
+        <v>0.4968485983507317</v>
       </c>
       <c r="B29" t="n">
-        <v>5.710310430599527</v>
+        <v>0.4141418490653193</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.016849086952478</v>
+        <v>0.2010148268514706</v>
       </c>
       <c r="B30" t="n">
-        <v>0.97845013991829</v>
+        <v>0.1824566527411436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.1931003731351427</v>
+        <v>0.1452498844205191</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2391845546693665</v>
+        <v>0.109871145782648</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8122146135231059</v>
+        <v>0.1899092163002573</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7799172826702934</v>
+        <v>0.1633960107576634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8859047718738506</v>
+        <v>0.1544143112517077</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9097394503583777</v>
+        <v>0.1521671477337114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6596645358343782</v>
+        <v>0.1620024238312819</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6825464241570107</v>
+        <v>0.09854932069276814</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8117536152515943</v>
+        <v>0.2298050314572448</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7997055999329813</v>
+        <v>0.1174619988801536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7548284752143029</v>
+        <v>0.124339171062291</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7513764998381978</v>
+        <v>0.06527680819232659</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7401735431366511</v>
+        <v>0.1530094231343781</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7241841030854419</v>
+        <v>0.0594514946830491</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7626149774699272</v>
+        <v>0.4254958108358347</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7194171909490212</v>
+        <v>0.2985472568868775</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5564028580604737</v>
+        <v>-0.06040077496932382</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5651682208465996</v>
+        <v>-0.1351409093824841</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7222320722836147</v>
+        <v>0.2908894226902992</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7324010633978756</v>
+        <v>0.1493034014773559</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5710369496836774</v>
+        <v>-0.05419303064189934</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5550718351305318</v>
+        <v>-0.0361547641907457</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7019801521968948</v>
+        <v>0.20347571466625</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6766021403910398</v>
+        <v>0.1524919071796784</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7285176210723826</v>
+        <v>0.2815969845777591</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7075626749135246</v>
+        <v>0.2006684264876506</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6548629788948835</v>
+        <v>-0.1021377025255646</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6629724017749757</v>
+        <v>-0.08552601713209519</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6110839150138779</v>
+        <v>-0.1517115856352539</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6286851194373639</v>
+        <v>-0.1211501334453183</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.281733510412941</v>
+        <v>-0.1933227828001434</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.285318208976781</v>
+        <v>-0.1833007994503395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9939993938772576</v>
+        <v>-0.1950844104713035</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9979295053526136</v>
+        <v>-0.1861946794937265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8905396952390634</v>
+        <v>-0.2294127560370921</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8923188071364571</v>
+        <v>-0.2076230289752643</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6535491003740151</v>
+        <v>-0.2249425548125457</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6580562947258826</v>
+        <v>-0.2121478112427399</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.06239687581733357</v>
+        <v>-0.1580933802189264</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05833912882412284</v>
+        <v>-0.1531621708789696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.882548971933899</v>
+        <v>-0.2276570503940634</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8874537961833786</v>
+        <v>-0.2319235299447909</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.882548971933899</v>
+        <v>-0.2276570503940634</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8874537961833786</v>
+        <v>-0.2319235299447909</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.101992965289522</v>
+        <v>-0.2056498981543013</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.112983025933588</v>
+        <v>-0.181458774673453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.2058529004973819</v>
+        <v>-0.2423704189489711</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2005019615151444</v>
+        <v>-0.2220423729941434</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.018580231955832</v>
+        <v>-0.169337150738703</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.018573519203073</v>
+        <v>-0.1623871774418484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.925538005096351</v>
+        <v>-0.1733844404389098</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9084862882514868</v>
+        <v>-0.1743746655451956</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9699235341927694</v>
+        <v>-0.2285973503574921</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.936617848885817</v>
+        <v>-0.1793497156628741</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.186240027990164</v>
+        <v>-0.2298742512182779</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.142249518574323</v>
+        <v>-0.225510845559846</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8986157580490276</v>
+        <v>-0.2745803355222415</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8661199415266272</v>
+        <v>-0.2543640517107871</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5387041372124437</v>
+        <v>-0.3102167032643084</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5076263755722759</v>
+        <v>-0.287873207325772</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3627669329917264</v>
+        <v>-0.2307152775426941</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3693360363631596</v>
+        <v>-0.1983744637806665</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.268843277776009</v>
+        <v>-0.1889625217605214</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.216527512480593</v>
+        <v>-0.1359259201719744</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.8006330019181995</v>
+        <v>-0.3921623931593579</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7638644273104289</v>
+        <v>-0.3994519115559262</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9011405103783365</v>
+        <v>-0.2899266149721538</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9030195039197697</v>
+        <v>-0.2606559396775235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1606705552338505</v>
+        <v>-0.3621125402306343</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1241280864370546</v>
+        <v>-0.3245313566708664</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8553254206936178</v>
+        <v>-0.1376553587456776</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8030625145166063</v>
+        <v>-0.1374100644147727</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8717548988201791</v>
+        <v>-0.1714767058755454</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7857817249430636</v>
+        <v>-0.1503849287351964</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_5.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.4429594313435204</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3992645103509139</v>
+        <v>-25.29798953722213</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-867.9434304134613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-51147.56773807216</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3347166.067121059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-222055451.4830326</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-14567247366.17157</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-828754468202.4888</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-43787950939789.34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1959746462124008</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-6.159323591606272e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.17729737917569e+17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.522010641250759e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.790931240950082e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.685742040623285e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.367481462964948e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.012099100942203e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.228218679516918e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.186067298263872e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4103409201240907</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3765695994791023</v>
+        <v>-35.00792509413381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1587.569656735798</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-128063.4416827547</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-11857786.22225251</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1131481464.221055</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-106503197330.4389</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-7370690181188.688</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-308643760136432.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.57345639061603e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.101067120685005e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.517413952017096e+21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.968670460378826e+23</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.337115535598782e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.724305576543173e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.066218482024742e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.341845693797019e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.593004685362988e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.883630696182788e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.3587143775834631</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4018854641427108</v>
+        <v>-32.09269209783454</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1969.357215393104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-171672.9849372598</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-16028520.03908506</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1507290283.648595</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-140240215594.9901</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11792376257020.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-950362963822970.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7.131317623579458e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.935851187753576e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.272361262408729e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.270031116951951e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.623072830717911e+24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.090615843500095e+26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-7.439170221901139e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-5.598968739075259e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-4.523259494687104e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-3.486158746536855e+33</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.1735750763153188</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2816664731996503</v>
+        <v>-24.53421740945334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1322.590598550737</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-122521.9234979534</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-12012485.34344799</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1159386599.832298</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-108632513442.3963</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-8633647501492.53</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-623936013751517.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3.762045048357151e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.502440610640258e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.611775907327705e+19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.084802800996298e+22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.60804414739582e+24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.008964599791432e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.189156944974799e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.177618895306471e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.089710782022353e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.021840605819972e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.03489176074543628</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0935226103747592</v>
+        <v>2.470874065625669</v>
+      </c>
+      <c r="C6" t="n">
+        <v>593.3570673110178</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43372.64719200969</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3385914.003608132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>272747649.792659</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22547850991.93509</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2848447380777.252</v>
+      </c>
+      <c r="I6" t="n">
+        <v>366039536946597.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.523293805240474e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.426141711007998e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.38872850090806e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.3471990011064e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.220356258838607e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.038800921347834e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.551247832609297e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9.731040464878576e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.765834709720383e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9.856899100976761e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.3664722548637366</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3599127665629931</v>
+        <v>-19.98482246094617</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-762.8172041925811</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-47694.18336053928</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3142519.967684655</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-203615844.7986175</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-12796491104.54436</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-699259938820.8789</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-35079968899586.68</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1518794471820450</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-5.051602205632774e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-8.533099421918971e+17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.676345769664289e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.117553809706715e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.047883173550516e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.793598376865153e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.376672719137264e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.275113173094996e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.538857150679774e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.4589633803383874</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4070203543070836</v>
+        <v>-24.28364010191066</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1069.816072042038</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-76758.96621611255</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-6039022.280477379</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-483395289.5503842</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-38485531082.43269</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2760407626843.504</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-190872617055880.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.224122241093853e+16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-7.184186862003264e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-4.012333616286766e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.337805016347487e+21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.38733027379623e+23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-7.313365946154139e+24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-3.392223829922982e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1.254776183543106e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-4.268695886210424e+28</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.41249479754165e+31</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.5089773767051985</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4273772976278596</v>
+        <v>-24.04329287692384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-973.1845331088633</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-59479.20050714371</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3928590.864966267</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-261479998.9127486</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-17155060966.3712</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-981596893404.7183</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-51556218707673.13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2281963145452422</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-6.926491195673146e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.477207061142282e+17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.251173278916615e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.558595108224872e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.366698024989485e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.903475378602904e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.401371372864436e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.964563921056605e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.127789300990431e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.5498162369676912</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.374545635298684</v>
+        <v>-45.45475131337795</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2691.357937594823</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-266884.8231459619</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-29471426.67192534</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3355598796.325979</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-383415527902.6799</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-38679708526953.95</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3659661598301553</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3.026196094233972e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1.925825528069225e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-5.482279194557798e+20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.275090389392742e+22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.309232752937037e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.130537992644862e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.903667579108529e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.356382290968942e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.656031405408703e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.032446532205647e+36</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2013791479754209</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.310461465834296</v>
+        <v>-18.10196669618278</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-869.1987096435951</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-59493.49912815467</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4259619.466948017</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-300842460.6660098</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-20628988210.95323</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1243248331140.268</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-68914535183901.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3384304160984220</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.393921162345516e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.514732014264332e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1.084951626899449e+20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.187666811745886e+21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.254475122970739e+23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.966027164052577e+25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.864265370034483e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.525077795826863e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.47808140997115e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.2787778993590344</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3021546202850426</v>
+        <v>-20.47461171696757</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-755.4596343359274</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-46965.52427803078</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3174569.241475483</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-214636834.2821472</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-14149132936.01525</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-763632826742.3529</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-34701582745964.77</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-961209494270708.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.321706558050802e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.878275691527301e+18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.845334159282945e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.517645650430362e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.168817761977769e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.854104745149988e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.73252318768996e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.897138132283397e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.326007007150212e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>0.1403567773520446</v>
       </c>
       <c r="B13" t="n">
-        <v>0.009251756584211377</v>
+        <v>0.05089931925650548</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-640.6937245315492</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-64253.60076485772</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5934503.861743216</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-524718106.6509351</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-44506227440.62007</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3192703471733.044</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-206415832537391.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.155430781026711e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-5.085152815763619e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.299911972771618e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.131317872455739e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.649264880851359e+22</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.353945556583964e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.439908968753287e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.334132794263145e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.176061172067844e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.039266142587612e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.1012906188007725</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1319372724767337</v>
+        <v>-8.448872355440388</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-542.8754265226601</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-29054.42639932918</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1549258.658930107</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-80711700.25180578</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-4001103481.672868</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-120560754770.7134</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1335046203322.417</v>
+      </c>
+      <c r="J14" t="n">
+        <v>691907040447368.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.214502733009632e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.346249106392353e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.716074301690357e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.167805206280622e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.935352602121581e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.972676740084077e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.272828025858343e+28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8.067411121976716e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.144851955881728e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.1312577762006944</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05067498419515562</v>
+        <v>-5.066474527761935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-295.321778582201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-13447.62340932176</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-603944.7455354215</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-26290912.95955351</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1084943439.341023</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-26924540879.21358</v>
+      </c>
+      <c r="I15" t="n">
+        <v>198591744287.0808</v>
+      </c>
+      <c r="J15" t="n">
+        <v>95160906242970.88</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9051950354929056</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.397682670258798e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.899619255190924e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.226660361919795e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.235249045014735e+23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.569427440050731e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.3668155535765e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.698245459687384e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8.616355122237458e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.2223208213173879</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1103074485298595</v>
+        <v>-6.66067167365</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-278.6212275635497</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-10787.11887591425</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-408463.0648403112</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-14592765.3880327</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-456660969.6343999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-3326439591.454971</v>
+      </c>
+      <c r="I16" t="n">
+        <v>845171001893.0907</v>
+      </c>
+      <c r="J16" t="n">
+        <v>90578186530859.12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6735602305800538</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.348038413378081e+17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.590532585082382e+19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.467233421175049e+21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.968931389075117e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.107983955346478e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.023356068643597e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9.758493035226037e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.735779888647796e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>-0.02169987064437204</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07646202848093735</v>
+        <v>2.008680265757514</v>
+      </c>
+      <c r="C17" t="n">
+        <v>152.6780378522916</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10961.14101795937</v>
+      </c>
+      <c r="E17" t="n">
+        <v>668370.8662650348</v>
+      </c>
+      <c r="F17" t="n">
+        <v>37796104.42791656</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2045012084.342654</v>
+      </c>
+      <c r="H17" t="n">
+        <v>110728777727.9642</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5811756700660.044</v>
+      </c>
+      <c r="J17" t="n">
+        <v>297362362129458.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.48530813308302e+16</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.254341582669147e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.47918265109893e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.652798180089561e+21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.857373628231771e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.730320848953744e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.769872890711401e+26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>8.40743710862365e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.000587232389658e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.01688094221336267</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0957865711481915</v>
+        <v>0.3663079146936314</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-21.09939428189998</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3322.751930372633</v>
+      </c>
+      <c r="E18" t="n">
+        <v>395675.3609502505</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33328326.09892721</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2519749079.040231</v>
+      </c>
+      <c r="H18" t="n">
+        <v>224395966059.1693</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17807238319755.07</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1341519440994791</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.538608901099024e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.295716062441798e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.864044079269774e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.297503668246207e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.376428857965952e+24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.259084827028699e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.961054044899587e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.987615004142705e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.803310964541353e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.04712566691634587</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06285428990819035</v>
+        <v>-0.5986544953022805</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-98.84346297311855</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-8581.703774139643</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-610543.0337913742</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-38637712.96564282</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2230429186.753604</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-81302811537.40952</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1003307705318.418</v>
+      </c>
+      <c r="J19" t="n">
+        <v>187362661522934.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.493799029725086e+16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.106022533402326e+18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.456499789112893e+20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.315109905050678e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.851223552262064e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.53475403929503e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.058650089611933e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.180040485031452e+29</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.801629939784161e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.1099620914004087</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02390915371342364</v>
+        <v>-2.028545994213733</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-209.1112556210332</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-7536.334265074003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-254583.2019960496</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-8095889.673718867</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-230214275.0739883</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-5255791.207626343</v>
+      </c>
+      <c r="I20" t="n">
+        <v>462495968453.3281</v>
+      </c>
+      <c r="J20" t="n">
+        <v>41609615419427.43</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2779033813815029</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.62558011311985e+17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.778725209326438e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.51984188335358e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.252868044606744e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.071245605818115e+24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4.88540529777643e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.187027240886324e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9.850835631195431e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>-0.1034741663147644</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.07545065315564811</v>
+        <v>-7.452639360743686</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-395.9764867224563</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-20397.05625938035</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1003872.999277271</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-46609629.53613836</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1964805564.011003</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-39185661089.0159</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2820941183987.752</v>
+      </c>
+      <c r="J21" t="n">
+        <v>495550196560421.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.111842149594208e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.581357330482733e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.829969897226835e+20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.992458767424418e+22</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.182445987941461e+24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.47703029917781e+26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9.389467037309152e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.795159338217829e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.603146806866886e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>0.05953571996208409</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0883658863476722</v>
+        <v>6.153808472482485</v>
+      </c>
+      <c r="C22" t="n">
+        <v>335.2570916753514</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26238.11334529369</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2015953.0811477</v>
+      </c>
+      <c r="F22" t="n">
+        <v>148064287.2718365</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10471608982.02742</v>
+      </c>
+      <c r="H22" t="n">
+        <v>759871162852.8773</v>
+      </c>
+      <c r="I22" t="n">
+        <v>53315758718099.42</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3632386676464996</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.434432284736117e+17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.633090455404939e+19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.105316093006984e+21</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.465158779128155e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.005085337977671e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.290875855229925e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.122256032260046e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.35761356068113e+30</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8.718710379209698e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.1464629830698457</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0691661075748489</v>
+        <v>2.670216449006883</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-161.0289242434647</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-8845.035217658033</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-379986.5115117024</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-10950177.96230997</v>
+      </c>
+      <c r="G23" t="n">
+        <v>219219590.7997665</v>
+      </c>
+      <c r="H23" t="n">
+        <v>157104345410.9362</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19999316947336</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1970596508151734</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.708610783503619e+17</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.350218907283718e+19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.943515350667292e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.061719718201198e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.946772378459196e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.370327610161456e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.238080339823095e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.470743212001682e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9.711707521510608e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.4928127554208245</v>
       </c>
       <c r="B24" t="n">
-        <v>0.352530925714285</v>
+        <v>1.302168337985285</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.369269465868948</v>
+      </c>
+      <c r="D24" t="n">
+        <v>33.11380460356087</v>
+      </c>
+      <c r="E24" t="n">
+        <v>220.4055207262724</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1483.951233656732</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9957.025375236575</v>
+      </c>
+      <c r="H24" t="n">
+        <v>64116.54551908689</v>
+      </c>
+      <c r="I24" t="n">
+        <v>411140.152331135</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2437448.73972045</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13180239.96089239</v>
+      </c>
+      <c r="L24" t="n">
+        <v>69686625.08614917</v>
+      </c>
+      <c r="M24" t="n">
+        <v>400837991.2978076</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2400971414.2988</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13646467660.72092</v>
+      </c>
+      <c r="P24" t="n">
+        <v>68623003885.78204</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>257864350673.7217</v>
+      </c>
+      <c r="R24" t="n">
+        <v>110526894374.0664</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-11397272753024.83</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1871713219774291</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1530511597418706</v>
+        <v>2.542138462211368</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34.49471165654435</v>
+      </c>
+      <c r="D25" t="n">
+        <v>786.9690212551908</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18195.09618159151</v>
+      </c>
+      <c r="F25" t="n">
+        <v>416054.2412157136</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9402389.615149807</v>
+      </c>
+      <c r="H25" t="n">
+        <v>204967321.7826846</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4401445481.947975</v>
+      </c>
+      <c r="J25" t="n">
+        <v>92736586886.37152</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1921827118759.781</v>
+      </c>
+      <c r="L25" t="n">
+        <v>39570535198652.67</v>
+      </c>
+      <c r="M25" t="n">
+        <v>819349171330944.8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.711962722231824e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.643877843146842e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.065492143689599e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.861071209972457e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.382929210462749e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.029139948831872e+23</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.1983283978110824</v>
       </c>
       <c r="B26" t="n">
-        <v>0.155439310795237</v>
+        <v>2.34067903349442</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.56987405277405</v>
+      </c>
+      <c r="D26" t="n">
+        <v>445.4602657143151</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7822.653096279702</v>
+      </c>
+      <c r="F26" t="n">
+        <v>139444.9745760209</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2508397.242175144</v>
+      </c>
+      <c r="H26" t="n">
+        <v>46258716.9733448</v>
+      </c>
+      <c r="I26" t="n">
+        <v>860893417.9306327</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16001285231.30043</v>
+      </c>
+      <c r="K26" t="n">
+        <v>295088854520.5591</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5368973545277.174</v>
+      </c>
+      <c r="M26" t="n">
+        <v>96152846519152.73</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1716572054286294</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.122112540075384e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.819246600073588e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.110083040275946e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.142342628084295e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.129162763526769e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1651000927412564</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1400233657687214</v>
+        <v>2.086242123101057</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.9377188665727</v>
+      </c>
+      <c r="D27" t="n">
+        <v>316.656846161482</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5001.477847569106</v>
+      </c>
+      <c r="F27" t="n">
+        <v>79723.01505946837</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1273540.106872144</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20155056.6522698</v>
+      </c>
+      <c r="I27" t="n">
+        <v>318922826.1240202</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5006348233.312808</v>
+      </c>
+      <c r="K27" t="n">
+        <v>78132374724.32741</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1222497476088.464</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19298102463060.42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>307350866128318.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4959178848876038</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.148016085008043e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.361390831167594e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.292943632610642e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.857759749926043e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.2526736426165058</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1833501533540975</v>
+        <v>2.332375553959253</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25.74263622614329</v>
+      </c>
+      <c r="D28" t="n">
+        <v>457.387032830116</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8526.29144694119</v>
+      </c>
+      <c r="F28" t="n">
+        <v>158234.9102274851</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2880635.714521464</v>
+      </c>
+      <c r="H28" t="n">
+        <v>47076785.53051205</v>
+      </c>
+      <c r="I28" t="n">
+        <v>722067239.1761267</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10073119579.78961</v>
+      </c>
+      <c r="K28" t="n">
+        <v>124531178607.9587</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1386546563292.475</v>
+      </c>
+      <c r="M28" t="n">
+        <v>15555507660424.94</v>
+      </c>
+      <c r="N28" t="n">
+        <v>169374117846729.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1210453143265244</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-690320764266080</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-2.036459523987791e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-5.21532583294172e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1.303138587167793e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.4968485983507317</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4141418490653193</v>
+        <v>1.745855927425277</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.932987514191472</v>
+      </c>
+      <c r="D29" t="n">
+        <v>53.3462894155978</v>
+      </c>
+      <c r="E29" t="n">
+        <v>375.2260776462541</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2644.125167539635</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18497.90378051929</v>
+      </c>
+      <c r="H29" t="n">
+        <v>125249.2311215203</v>
+      </c>
+      <c r="I29" t="n">
+        <v>834071.1244811972</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5325364.919407157</v>
+      </c>
+      <c r="K29" t="n">
+        <v>32287777.55065444</v>
+      </c>
+      <c r="L29" t="n">
+        <v>186715034.5980291</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1034185968.116773</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5386353911.605584</v>
+      </c>
+      <c r="O29" t="n">
+        <v>25856957690.58161</v>
+      </c>
+      <c r="P29" t="n">
+        <v>113371880995.2654</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>435023467494.376</v>
+      </c>
+      <c r="R29" t="n">
+        <v>940889963236.6328</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-9036223671642.875</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2010148268514706</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1824566527411436</v>
+        <v>1.939561925097071</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16.54546317758539</v>
+      </c>
+      <c r="D30" t="n">
+        <v>240.6616517216124</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3687.151773423547</v>
+      </c>
+      <c r="F30" t="n">
+        <v>57265.36704449885</v>
+      </c>
+      <c r="G30" t="n">
+        <v>896298.7616595997</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13776494.65656859</v>
+      </c>
+      <c r="I30" t="n">
+        <v>213722315.1366788</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3257236822.113911</v>
+      </c>
+      <c r="K30" t="n">
+        <v>48118150184.33873</v>
+      </c>
+      <c r="L30" t="n">
+        <v>684798726321.0446</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9341936573253.879</v>
+      </c>
+      <c r="N30" t="n">
+        <v>123553074914989.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1634418465497370</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.271060450639812e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.416975952610075e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.395227464708e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.455050196981886e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.1452498844205191</v>
       </c>
       <c r="B31" t="n">
-        <v>0.109871145782648</v>
+        <v>1.745472248045167</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.37853485775142</v>
+      </c>
+      <c r="D31" t="n">
+        <v>223.9459047098252</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3398.937834239863</v>
+      </c>
+      <c r="F31" t="n">
+        <v>52552.3198852732</v>
+      </c>
+      <c r="G31" t="n">
+        <v>828111.1291365116</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13790651.0805065</v>
+      </c>
+      <c r="I31" t="n">
+        <v>234309248.0884457</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4017945948.752412</v>
+      </c>
+      <c r="K31" t="n">
+        <v>68362278676.95933</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1133962266517.087</v>
+      </c>
+      <c r="M31" t="n">
+        <v>18237975624169.84</v>
+      </c>
+      <c r="N31" t="n">
+        <v>290578881948427.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4686293956487695</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.662354739821152e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.267384043635649e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.106154223541882e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.493161130001288e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.1899092163002573</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1633960107576634</v>
+        <v>2.810455419295778</v>
+      </c>
+      <c r="C32" t="n">
+        <v>38.12542948526857</v>
+      </c>
+      <c r="D32" t="n">
+        <v>720.7297873166747</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14359.09612271774</v>
+      </c>
+      <c r="F32" t="n">
+        <v>292325.160210091</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6048183.402973798</v>
+      </c>
+      <c r="H32" t="n">
+        <v>124262955.856741</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2606090110.824007</v>
+      </c>
+      <c r="J32" t="n">
+        <v>53844334084.14167</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1083820043057.509</v>
+      </c>
+      <c r="L32" t="n">
+        <v>21344226726657.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>412311157312265.8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7871774312773658</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.531769152949195e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.168322918187913e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7.079534312680813e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.64842873660022e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.814772032834206e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1544143112517077</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1521671477337114</v>
+        <v>2.879902727357826</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.76965013075588</v>
+      </c>
+      <c r="D33" t="n">
+        <v>680.4432992309585</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14680.42745145249</v>
+      </c>
+      <c r="F33" t="n">
+        <v>322828.6670686678</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7208054.35458125</v>
+      </c>
+      <c r="H33" t="n">
+        <v>156009103.0200294</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3508305738.540421</v>
+      </c>
+      <c r="J33" t="n">
+        <v>76047938401.86261</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1520250757574.526</v>
+      </c>
+      <c r="L33" t="n">
+        <v>26974785482048.55</v>
+      </c>
+      <c r="M33" t="n">
+        <v>375620331467171.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2099810548358570</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-9.937140836308138e+16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-4.930423379505703e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.499029436226271e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-3.984800381407819e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.080600137532966e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.1620024238312819</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09854932069276814</v>
+        <v>2.622797705955072</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31.98655053578066</v>
+      </c>
+      <c r="D34" t="n">
+        <v>609.2889696763414</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12031.17488409529</v>
+      </c>
+      <c r="F34" t="n">
+        <v>244352.2098599665</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5171967.341475293</v>
+      </c>
+      <c r="H34" t="n">
+        <v>127905122.3957088</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3297954611.961757</v>
+      </c>
+      <c r="J34" t="n">
+        <v>85667571359.28128</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2177975215468.919</v>
+      </c>
+      <c r="L34" t="n">
+        <v>53022150352504.71</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1230427150214450</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.804972032067939e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.457112302743565e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.49559598731146e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.477963034748859e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.097685429888056e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.882142624620586e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.2298050314572448</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1174619988801536</v>
+        <v>21.81942834119784</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6429.525865758513</v>
+      </c>
+      <c r="D35" t="n">
+        <v>991685.2953848781</v>
+      </c>
+      <c r="E35" t="n">
+        <v>151995102.072506</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23427631939.93028</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3612590394472.93</v>
+      </c>
+      <c r="H35" t="n">
+        <v>475063230572769.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.619689684178906e+16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.030367556561182e+18</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.001459354518013e+20</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-8.687849560195519e+22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-2.606262568260304e+25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-5.724101171671254e+27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1.160361906440402e+30</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-2.13896914425323e+32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-3.648211209431911e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-6.005480004526005e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-9.969419232021024e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.124339171062291</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06527680819232659</v>
+        <v>15.35885196684391</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3309.507790611</v>
+      </c>
+      <c r="D36" t="n">
+        <v>425964.1384038497</v>
+      </c>
+      <c r="E36" t="n">
+        <v>53604595.28902776</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6631568687.757415</v>
+      </c>
+      <c r="G36" t="n">
+        <v>798495922826.8418</v>
+      </c>
+      <c r="H36" t="n">
+        <v>71229544597071.17</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3528178485533058</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-5.393279212080474e+17</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-2.320061651483916e+20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-5.410656612666383e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.032906056426243e+25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.803514008726489e+27</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-2.98931845463795e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-4.640911784037352e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-6.805707122519472e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-9.713852416298414e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-1.395602701025659e+38</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>0.1530094231343781</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0594514946830491</v>
+        <v>10.70921825979367</v>
+      </c>
+      <c r="C37" t="n">
+        <v>840.060453750906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>96129.27690313854</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10320648.5612547</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1015730524.639119</v>
+      </c>
+      <c r="G37" t="n">
+        <v>87801439629.45184</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2274872625534.17</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-808704066079739.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-2.283628470641087e+17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-4.194560833575609e+19</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-6.443551931368313e+21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-8.895151798457133e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.163407570299214e+26</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1.475176033899131e+28</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.787873853705225e+30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-2.078582048845463e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-2.368889237351263e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-2.713433419608768e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.4254958108358347</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2985472568868775</v>
+        <v>62.30227332705415</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9594.014416786107</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1492015.428594091</v>
+      </c>
+      <c r="E38" t="n">
+        <v>234936274.535848</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37009857423.69361</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5802200326580.227</v>
+      </c>
+      <c r="H38" t="n">
+        <v>884706171404180.1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.31664573527263e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.899984583707752e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.640781112568456e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.512708054269534e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.443633995608811e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.281874806224864e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.057483486446471e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.459383030637619e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.114388602850971e+34</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.898322186076536e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.15847024502156e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.06040077496932382</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1351409093824841</v>
+        <v>-23.88034373710313</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-7931.880231839991</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-2447939.592047533</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-742761035.7103752</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-220463746786.5268</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-63888913534922.68</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1.803471033152532e+16</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-4.965388612213194e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1.334108877968581e+21</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3.497833104563463e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-8.967224505360585e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-2.260739221601874e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-5.648038813787838e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-1.403636906917065e+33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-3.475156738485932e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-8.587445896241867e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-2.121932530059249e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-5.248485054635682e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.2908894226902992</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1493034014773559</v>
+        <v>35.08455476749195</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2846.230204769477</v>
+      </c>
+      <c r="D40" t="n">
+        <v>280055.4604305322</v>
+      </c>
+      <c r="E40" t="n">
+        <v>28577347.2160985</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2806861311.411655</v>
+      </c>
+      <c r="G40" t="n">
+        <v>251124375805.5484</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4703053540162.682</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-2978130135146669</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-9.370099906203031e+17</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-2.003333840057051e+20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-3.527243259961425e+22</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-5.490455805762435e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-8.089877740097904e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1.171089577447744e+29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-1.639712679926927e+31</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-2.223181153508496e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-2.968899741665955e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-3.981136801433505e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.05419303064189934</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0361547641907457</v>
+        <v>-8.117295360883471</v>
+      </c>
+      <c r="C41" t="n">
+        <v>265.6201199767506</v>
+      </c>
+      <c r="D41" t="n">
+        <v>261556.2529703409</v>
+      </c>
+      <c r="E41" t="n">
+        <v>70820287.17763895</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15356664065.32646</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2936654259388.004</v>
+      </c>
+      <c r="H41" t="n">
+        <v>490968352735149</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.74281661685751e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8.356175741860177e+18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.337480518538777e+20</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.12124889688956e+22</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.511287534071015e+24</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.2162733442533e+27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-4.317171955446212e+29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-9.368016446946861e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.621277120832829e+34</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-2.53517586114265e+36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-4.02528284544332e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.20347571466625</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1524919071796784</v>
+        <v>18.82065042882466</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2971.253164863027</v>
+      </c>
+      <c r="D42" t="n">
+        <v>316375.2899362592</v>
+      </c>
+      <c r="E42" t="n">
+        <v>33162887.10263763</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3469961783.530066</v>
+      </c>
+      <c r="G42" t="n">
+        <v>362505916776.2885</v>
+      </c>
+      <c r="H42" t="n">
+        <v>36680813309962.42</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3609896806772288</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.429268042268069e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.0213095463095e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.161949321192216e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6.322838877934298e+22</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.499849550927925e+25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-3.831695338676299e+27</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-5.814430917344727e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-7.035222239232765e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-7.710754723780265e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-8.600294305735295e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.2815969845777591</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2006684264876506</v>
+        <v>64.36669185534144</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12880.39713884968</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2671819.290233968</v>
+      </c>
+      <c r="E43" t="n">
+        <v>546013723.8742868</v>
+      </c>
+      <c r="F43" t="n">
+        <v>109441396799.2929</v>
+      </c>
+      <c r="G43" t="n">
+        <v>21576828856530.21</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4097138313661476</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.574067806693971e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.348357993168721e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.266140782787172e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.458862907438408e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.405438620640347e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.593658933514496e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-1.623201366242266e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-1.389663696352745e+33</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-3.322929032864066e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-5.973853856864217e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-1.123681778039207e+40</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>-0.1021377025255646</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.08552601713209519</v>
+        <v>-27.67688355089667</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5882.031100761106</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1241173.558777268</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-263471416.8385857</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-54463602696.50735</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-10894447250221.77</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-2218778079648158</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-4.331988512220419e+17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-8.167820408349072e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.520236924903522e+22</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.898512224487633e+24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-5.790244590381033e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.175150748596759e+29</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-2.384603097294889e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-4.746478364744032e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-9.247903793781855e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.785180775483414e+38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-3.457839734243952e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.1517115856352539</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1211501334453183</v>
+        <v>-10.3584589096007</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-511.8825096815737</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-79903.64249781407</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-12683159.20599438</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1864084803.402673</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-257084263586.3885</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-35262555388645.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-4603117504023320</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-5.782336457231492e+17</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-7.081822045976013e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-8.583033065502139e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-1.038225542273746e+24</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.245918163099596e+26</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1.473409648578571e+28</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.700279530646992e+30</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.916307795446099e+32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-2.136115563517114e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-2.389553920439095e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1933227828001434</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1833007994503395</v>
+        <v>-5.291131861867886</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-136.5767184291992</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4758.49485591001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-173551.8915802675</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6191839.878723294</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-212542415.8756463</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5852525275.177529</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-138973632293.6169</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-2288561623712.977</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6075577326853.156</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2455889068791533</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.271797378801333e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.246557404488155e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.100324495072305e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.007659337316194e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.938314437326233e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.060287869417792e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.821133601134545e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1950844104713035</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1861946794937265</v>
+        <v>-6.930426862613011</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-218.46479379573</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-9215.248286580932</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-404275.2465028454</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-17349506.58845375</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-717962452.8409476</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-24393795239.83653</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-734847556988.2104</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-17188312019932.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-171016231400671.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.0025443718128e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>7.97820674417375e+17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.214372806057907e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.116458437064331e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>9.930792197282179e+22</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.432557984735513e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.936685099349106e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.446747398721591e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2294127560370921</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2076230289752643</v>
+        <v>-7.379484959289331</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-217.0945369532604</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-8901.657403287882</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-381270.1672060386</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-16020769.77540289</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-650945209.2554116</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-22029046525.59372</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-673943698182.615</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-17008312139137.16</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-277336725129348.2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1511523145630424</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.406825407320463e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.032740597902378e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.084733178664834e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.200429510062632e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.324545182413364e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.008950319704926e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.360693419299532e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2249425548125457</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2121478112427399</v>
+        <v>-9.576734688165466</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-342.2086107672558</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-16950.98163236319</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-874879.0015128616</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-44332453.29890362</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2175756054.930226</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-90264378686.38272</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3426876560731.927</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-111450859964712</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-2743103161114584</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-3.297466070960883e+16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.064894067643935e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.273316931654913e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9.83125427345827e+21</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6.128701587024743e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.415031177333175e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.821331043375887e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9.650480102706923e+28</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.1580933802189264</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1531621708789696</v>
+        <v>-15.38025647329567</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1113.285241740153</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-93261.42639827874</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7884760.860469178</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-650781060.3700211</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-52084935051.47393</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3617046319913.625</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-233720434004899.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.351230700428217e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.718339815244841e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.875545866803173e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1.225884694934972e+21</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-4.967641775556179e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-3.146894978813381e+23</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.796527318511828e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.349876262673253e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.338753505866444e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.255847260557659e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2276570503940634</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2319235299447909</v>
+        <v>-9.165334614061345</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-298.6860252384687</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-13868.24285329609</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-675586.2847737258</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-32364685.04223354</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1501962273.586669</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-58858141641.04245</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2111120167692.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-64759727306516.91</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1492114048061292</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-1.555971266568459e+16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6.472523898909532e+17</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.751475529981284e+19</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.823592574888987e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.834237764907903e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.500320679690665e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7.611952530563565e+26</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.82714067655206e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2276570503940634</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2319235299447909</v>
+        <v>-9.165334614061345</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-298.6860252384687</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-13868.24285329609</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-675586.2847737258</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-32364685.04223354</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1501962273.586669</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-58858141641.04245</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-2111120167692.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-64759727306516.91</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1492114048061292</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.555971266568459e+16</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6.472523898909532e+17</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6.751475529981284e+19</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4.823592574888987e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.834237764907903e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.500320679690665e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7.611952530563565e+26</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.82714067655206e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.2056498981543013</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.181458774673453</v>
+        <v>-5.073463949147675</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-124.8557604392856</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4256.288167522011</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-152224.1488281676</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-5327802.385726851</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-179565423.986876</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4849909309.968428</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-114185572207.0596</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1934809394060.462</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-2035179543004.062</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1538292876563566</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.032452113151498e+16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.239417197960564e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.271918768308781e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4.74969425738481e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.704771945810784e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.013895305154367e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.117741027587923e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2423704189489711</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2220423729941434</v>
+        <v>-15.77001005427929</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-794.4095504750569</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-54132.78013602918</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3834333.02533754</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-268034272.6236645</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-18263641901.12811</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1079765117423.92</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-59790780792179.14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2986802511127808</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.303228159309598e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-5.034624621028589e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.971342005039204e+20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-7.547585741806402e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-1.332609584330727e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>9.501681232488969e+24</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.39565429911435e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.293019790697982e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.116907499703751e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.169337150738703</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1623871774418484</v>
+        <v>-5.170943776550866</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-150.7315933495618</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-6260.982056001103</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-267204.8271246197</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-11031148.48699039</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-435844732.1538621</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13808026798.71973</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-381765278478.4556</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-7799928237242.91</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-32320618706758.38</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6822760852463344</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.354511446134228e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.07434262327432e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.557080789023063e+20</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.160996181815113e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.7341226071178e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.092657165245307e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.896662448420326e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.1733844404389098</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1743746655451956</v>
+        <v>-8.379178027162794</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-330.9758686370579</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-16426.43000024126</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-832828.152518063</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-41191402.65501188</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1966175892.195054</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-79054386301.86102</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2865400494187.198</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-86060336628000.27</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1698399102215541</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8985121604825952</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.899129753626699e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.114213634844694e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.340439916049439e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7.573696532055783e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3.97534755597194e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.024550077545434e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.029078769299774e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.2285973503574921</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1793497156628741</v>
+        <v>-7.044934880830794</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-238.2058572191268</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-9736.76431639705</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-412031.8807621046</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-17163841.40857581</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-692724046.3584602</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-22785276990.28829</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-649332755995.1384</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-13210983334487.13</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2723957082551.125</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.771174618711423e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.151094880085925e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.819762464328683e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.807752528660852e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.273075021289772e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.504760288580578e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.334610318419824e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9.92530855726016e+27</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.2298742512182779</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.225510845559846</v>
+        <v>-9.514603663799344</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-366.982582144165</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-15597.2299776617</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-675930.6902249091</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-28895476.81737918</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1204890426.311309</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-43028350191.97139</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1393334703199.603</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-37332130705600.78</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-626823504746491.2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7834617383498336</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.328418951350847e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.744276230289839e+19</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4.912303083192063e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.451857477310394e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.1338376087426e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.085491617998862e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.287589705879373e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2745803355222415</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2543640517107871</v>
+        <v>-10.91674462019478</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-396.6780574768816</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-18479.37713798218</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-887186.1526255428</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-42026082.90970974</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1941982893.221978</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-77503105216.0345</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2863895308473.333</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-92684856049794.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2391428059856382</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-3.786744226915485e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.319077158636902e+17</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.074818332558639e+19</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.22669813446109e+21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.357137014507535e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.299391423151501e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.154728267714886e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.793144448774751e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.3102167032643084</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.287873207325772</v>
+        <v>-18.0090363198646</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-890.4707054667164</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-59388.136387051</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4088057.729716777</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-278747291.5732521</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-18624086794.95742</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1088713133350.672</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-59660531312680.66</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2947385973232566</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.246462042381671e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-4.178182605907826e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-8.545194208301194e+19</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.87969695160798e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>8.345771207789517e+23</v>
+      </c>
+      <c r="P60" t="n">
+        <v>8.187363716240684e+25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>6.370962980861414e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4.594043818909582e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.327638859189948e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.2307152775426941</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1983744637806665</v>
+        <v>-43.06395521826817</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-8694.678076879025</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1827592.155838976</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-383211412.1815522</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-78820247116.48599</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15833177339900.28</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2810154651831372</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-4.725533882380811e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.336818957382886e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.041792737784069e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.415585119298663e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-2.073483351856909e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-3.243948396661511e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-4.814078941193257e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-7.421448751518042e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-1.279802591334318e+35</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-2.372956690890952e+37</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-4.321383465813132e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1889625217605214</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1359259201719744</v>
+        <v>-3.233468569285205</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-80.89996315174807</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3121.165153103201</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-118786.7661394716</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4282516.586198159</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-145763155.2791605</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-3680114914.49103</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-71375451593.22818</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-365168871355.582</v>
+      </c>
+      <c r="K62" t="n">
+        <v>55844047472080.17</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3706811336554834</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.617714612695811e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.248853725234983e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.360386348983254e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.560165048473691e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.001239555176594e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.037776605872812e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.596662222793315e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.3921623931593579</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3994519115559262</v>
+        <v>-16.91114413979214</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-627.8109685100665</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-32197.67496616938</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1752133.200449365</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-96104196.39466244</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-5225485016.14927</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-258341946532.5514</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-12289729106249.53</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-550937897809555.8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-2.300393015126541e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-9.019973062575931e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-3.405876805302463e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1.183811350398757e+21</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-3.165330092401936e+22</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-4.163316742479452e+23</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.206799043994e+25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.922930291230619e+27</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.556085222982632e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2899266149721538</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2606559396775235</v>
+        <v>-8.830136959235348</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-249.5325585027787</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-9787.635803223988</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-404100.0100777046</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-16552157.00303546</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-661691511.3242048</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-22164934736.44931</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-674181821231.0164</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-16911622779246.99</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-263967803130618.6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3033553616217876</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.68698633820309e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.832833111635505e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.493958834608401e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.022882049609772e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.061881851862218e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.295402445774185e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.488667998523477e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.3621125402306343</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3245313566708664</v>
+        <v>-27.40000649714392</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1505.854830031491</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-118815.142017677</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-9790377.009106057</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-803071570.3512136</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-64799548988.70213</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4672395662344.049</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-320287439354504.1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2.029310916970633e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.163554940352482e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-6.075771622884427e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-3.026996527199136e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.319279360430124e+23</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-2.596095093841375e+24</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.212425367939292e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.442034158517755e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3.414631342303785e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.370569082827653e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.1376553587456776</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1374100644147727</v>
+        <v>-6.095655675469535</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-296.4099689214454</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-15735.43420650176</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-818995.0913635213</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-41214592.33428569</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1998502072.200162</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-80789957579.79257</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2911651974823.05</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-85106781501441.05</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-1393948519778125</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.296469819821142e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.688872447463325e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.008820499107639e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.484893001472649e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.380131359543531e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.118300990639511e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.564865169279704e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.792754382872456e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>-0.1714767058755454</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1503849287351964</v>
+        <v>-8.94945382375661</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-399.8349343143869</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-19159.16765466628</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-914677.6663609024</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-42549036.8620933</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1914003228.05431</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-74662892234.86786</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2620525280009.155</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-77325098588707.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1565460992495980</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3982398582435488</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.51553111704221e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.924401516416542e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.190969098037748e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.418388947056703e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.172967202670891e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.515955873887544e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.278051571286061e+28</v>
       </c>
     </row>
   </sheetData>
